--- a/01_Dimension 1-10/08_Vernier Height Gauge (up to 1000mm).xlsx
+++ b/01_Dimension 1-10/08_Vernier Height Gauge (up to 1000mm).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pakaw\oxsoft\metrikos\proecho\01_Dimension 1-10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pakaw\oxsoft\metrikos\evgenis\01_Dimension 1-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="645" windowWidth="29775" windowHeight="19185" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="645" windowWidth="29775" windowHeight="19185"/>
   </bookViews>
   <sheets>
     <sheet name="Data Record" sheetId="21" r:id="rId1"/>
@@ -1582,7 +1582,7 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="393">
+  <cellXfs count="387">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2255,39 +2255,6 @@
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="9" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="11" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="48" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="48" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="48" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="48" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2295,6 +2262,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="48" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="49" fillId="0" borderId="11" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="49" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="49" fillId="0" borderId="12" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="54" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="48" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2306,42 +2327,6 @@
     <xf numFmtId="2" fontId="48" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="48" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="48" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="48" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="48" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2349,78 +2334,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="48" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="49" fillId="0" borderId="9" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="49" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="49" fillId="0" borderId="10" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="49" fillId="0" borderId="11" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="49" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="49" fillId="0" borderId="12" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="63" fillId="0" borderId="11" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="63" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="63" fillId="0" borderId="12" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="63" fillId="0" borderId="9" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="63" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="63" fillId="0" borderId="10" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2462,58 +2375,112 @@
     <xf numFmtId="168" fontId="63" fillId="0" borderId="14" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="54" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="49" fillId="0" borderId="9" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="49" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="49" fillId="0" borderId="10" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="48" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="48" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="48" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="9" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="10" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="11" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="48" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="48" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="48" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="38" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2534,7 +2501,22 @@
     <xf numFmtId="177" fontId="38" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2544,6 +2526,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2579,53 +2579,11 @@
     <xf numFmtId="174" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2642,9 +2600,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2659,6 +2614,45 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2696,38 +2690,6 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="64" fillId="14" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="64" fillId="14" borderId="8" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="64" fillId="14" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2749,6 +2711,26 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="16" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="64" fillId="14" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="64" fillId="14" borderId="8" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="64" fillId="14" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3404,8 +3386,8 @@
   </sheetPr>
   <dimension ref="A1:IM188"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A6" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:S1"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A12" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26:W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="18.75" customHeight="1"/>
@@ -3423,31 +3405,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:247" ht="21" customHeight="1">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="299" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="232"/>
+      <c r="B1" s="299"/>
+      <c r="C1" s="299"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="299"/>
+      <c r="F1" s="299"/>
+      <c r="G1" s="299"/>
+      <c r="H1" s="299"/>
+      <c r="I1" s="299"/>
+      <c r="J1" s="299"/>
       <c r="K1" s="128" t="s">
         <v>53</v>
       </c>
       <c r="L1" s="128"/>
       <c r="M1" s="128"/>
       <c r="N1" s="128"/>
-      <c r="O1" s="231" t="s">
+      <c r="O1" s="298" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="231"/>
-      <c r="Q1" s="231"/>
-      <c r="R1" s="231"/>
-      <c r="S1" s="231"/>
+      <c r="P1" s="298"/>
+      <c r="Q1" s="298"/>
+      <c r="R1" s="298"/>
+      <c r="S1" s="298"/>
       <c r="T1" s="129"/>
       <c r="U1" s="129"/>
       <c r="V1" s="129"/>
@@ -3471,59 +3453,59 @@
       <c r="IL1"/>
     </row>
     <row r="2" spans="1:247" ht="21" customHeight="1">
-      <c r="A2" s="232"/>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="232"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="232"/>
+      <c r="A2" s="299"/>
+      <c r="B2" s="299"/>
+      <c r="C2" s="299"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="299"/>
+      <c r="F2" s="299"/>
+      <c r="G2" s="299"/>
+      <c r="H2" s="299"/>
+      <c r="I2" s="299"/>
+      <c r="J2" s="299"/>
       <c r="K2" s="129" t="s">
         <v>56</v>
       </c>
       <c r="L2" s="128"/>
       <c r="M2" s="129"/>
       <c r="N2" s="128"/>
-      <c r="O2" s="303">
+      <c r="O2" s="237">
         <v>42495</v>
       </c>
-      <c r="P2" s="303"/>
-      <c r="Q2" s="303"/>
-      <c r="R2" s="303"/>
-      <c r="S2" s="307" t="s">
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="237"/>
+      <c r="S2" s="241" t="s">
         <v>57</v>
       </c>
-      <c r="T2" s="307"/>
-      <c r="U2" s="307"/>
-      <c r="V2" s="307"/>
-      <c r="W2" s="307"/>
-      <c r="X2" s="303">
+      <c r="T2" s="241"/>
+      <c r="U2" s="241"/>
+      <c r="V2" s="241"/>
+      <c r="W2" s="241"/>
+      <c r="X2" s="237">
         <v>42496</v>
       </c>
-      <c r="Y2" s="303"/>
-      <c r="Z2" s="303"/>
-      <c r="AA2" s="303"/>
+      <c r="Y2" s="237"/>
+      <c r="Z2" s="237"/>
+      <c r="AA2" s="237"/>
       <c r="AB2" s="131"/>
       <c r="AC2" s="130"/>
       <c r="AD2" s="130"/>
       <c r="IL2"/>
     </row>
     <row r="3" spans="1:247" ht="21" customHeight="1">
-      <c r="A3" s="233" t="s">
+      <c r="A3" s="300" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="233"/>
-      <c r="D3" s="233"/>
-      <c r="E3" s="233"/>
-      <c r="F3" s="233"/>
-      <c r="G3" s="233"/>
-      <c r="H3" s="233"/>
-      <c r="I3" s="233"/>
-      <c r="J3" s="233"/>
+      <c r="B3" s="300"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="300"/>
+      <c r="H3" s="300"/>
+      <c r="I3" s="300"/>
+      <c r="J3" s="300"/>
       <c r="K3" s="128" t="s">
         <v>59</v>
       </c>
@@ -3531,17 +3513,17 @@
       <c r="M3" s="128"/>
       <c r="N3" s="128"/>
       <c r="O3" s="128"/>
-      <c r="P3" s="238">
+      <c r="P3" s="247">
         <v>20</v>
       </c>
-      <c r="Q3" s="238"/>
+      <c r="Q3" s="247"/>
       <c r="R3" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="S3" s="238">
+      <c r="S3" s="247">
         <v>50</v>
       </c>
-      <c r="T3" s="238"/>
+      <c r="T3" s="247"/>
       <c r="U3" s="133" t="s">
         <v>61</v>
       </c>
@@ -3556,18 +3538,18 @@
       <c r="AD3" s="131"/>
     </row>
     <row r="4" spans="1:247" ht="21" customHeight="1">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="301" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="234"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
+      <c r="B4" s="301"/>
+      <c r="C4" s="301"/>
+      <c r="D4" s="301"/>
+      <c r="E4" s="301"/>
+      <c r="F4" s="301"/>
+      <c r="G4" s="301"/>
+      <c r="H4" s="301"/>
+      <c r="I4" s="301"/>
+      <c r="J4" s="301"/>
       <c r="K4" s="128" t="s">
         <v>51</v>
       </c>
@@ -3603,30 +3585,30 @@
       <c r="C5" s="135"/>
       <c r="D5" s="135"/>
       <c r="E5" s="135"/>
-      <c r="F5" s="304" t="s">
+      <c r="F5" s="238" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="304"/>
-      <c r="H5" s="304"/>
-      <c r="I5" s="304"/>
-      <c r="J5" s="304"/>
-      <c r="K5" s="304"/>
-      <c r="L5" s="304"/>
-      <c r="M5" s="304"/>
-      <c r="N5" s="304"/>
-      <c r="O5" s="304"/>
-      <c r="P5" s="304"/>
-      <c r="Q5" s="304"/>
-      <c r="R5" s="304"/>
-      <c r="S5" s="304"/>
-      <c r="T5" s="304"/>
-      <c r="U5" s="304"/>
-      <c r="V5" s="304"/>
-      <c r="W5" s="304"/>
-      <c r="X5" s="304"/>
-      <c r="Y5" s="304"/>
-      <c r="Z5" s="304"/>
-      <c r="AA5" s="304"/>
+      <c r="G5" s="238"/>
+      <c r="H5" s="238"/>
+      <c r="I5" s="238"/>
+      <c r="J5" s="238"/>
+      <c r="K5" s="238"/>
+      <c r="L5" s="238"/>
+      <c r="M5" s="238"/>
+      <c r="N5" s="238"/>
+      <c r="O5" s="238"/>
+      <c r="P5" s="238"/>
+      <c r="Q5" s="238"/>
+      <c r="R5" s="238"/>
+      <c r="S5" s="238"/>
+      <c r="T5" s="238"/>
+      <c r="U5" s="238"/>
+      <c r="V5" s="238"/>
+      <c r="W5" s="238"/>
+      <c r="X5" s="238"/>
+      <c r="Y5" s="238"/>
+      <c r="Z5" s="238"/>
+      <c r="AA5" s="238"/>
       <c r="AB5" s="135"/>
       <c r="AC5" s="135"/>
       <c r="AD5" s="136"/>
@@ -3856,33 +3838,33 @@
       <c r="C6" s="135"/>
       <c r="D6" s="135"/>
       <c r="E6" s="135"/>
-      <c r="F6" s="236" t="s">
+      <c r="F6" s="271" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="236"/>
-      <c r="H6" s="236"/>
-      <c r="I6" s="236"/>
-      <c r="J6" s="236"/>
-      <c r="K6" s="236"/>
-      <c r="L6" s="236"/>
+      <c r="G6" s="271"/>
+      <c r="H6" s="271"/>
+      <c r="I6" s="271"/>
+      <c r="J6" s="271"/>
+      <c r="K6" s="271"/>
+      <c r="L6" s="271"/>
       <c r="M6" s="134" t="s">
         <v>65</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="135"/>
-      <c r="Q6" s="305" t="s">
+      <c r="Q6" s="239" t="s">
         <v>78</v>
       </c>
-      <c r="R6" s="305"/>
-      <c r="S6" s="305"/>
-      <c r="T6" s="305"/>
-      <c r="U6" s="305"/>
-      <c r="V6" s="305"/>
-      <c r="W6" s="305"/>
-      <c r="X6" s="305"/>
-      <c r="Y6" s="305"/>
-      <c r="Z6" s="305"/>
-      <c r="AA6" s="305"/>
+      <c r="R6" s="239"/>
+      <c r="S6" s="239"/>
+      <c r="T6" s="239"/>
+      <c r="U6" s="239"/>
+      <c r="V6" s="239"/>
+      <c r="W6" s="239"/>
+      <c r="X6" s="239"/>
+      <c r="Y6" s="239"/>
+      <c r="Z6" s="239"/>
+      <c r="AA6" s="239"/>
       <c r="AB6" s="135"/>
       <c r="AC6" s="135"/>
       <c r="AD6" s="136"/>
@@ -4110,40 +4092,40 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="223"/>
-      <c r="D7" s="235">
+      <c r="D7" s="302">
         <v>123</v>
       </c>
-      <c r="E7" s="235"/>
-      <c r="F7" s="235"/>
-      <c r="G7" s="235"/>
-      <c r="H7" s="235"/>
-      <c r="I7" s="237" t="s">
+      <c r="E7" s="302"/>
+      <c r="F7" s="302"/>
+      <c r="G7" s="302"/>
+      <c r="H7" s="302"/>
+      <c r="I7" s="303" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="237"/>
-      <c r="K7" s="237"/>
-      <c r="L7" s="309">
+      <c r="J7" s="303"/>
+      <c r="K7" s="303"/>
+      <c r="L7" s="244">
         <v>456</v>
       </c>
-      <c r="M7" s="309"/>
-      <c r="N7" s="309"/>
-      <c r="O7" s="309"/>
-      <c r="P7" s="309"/>
-      <c r="Q7" s="309"/>
-      <c r="R7" s="309"/>
-      <c r="S7" s="306" t="s">
+      <c r="M7" s="244"/>
+      <c r="N7" s="244"/>
+      <c r="O7" s="244"/>
+      <c r="P7" s="244"/>
+      <c r="Q7" s="244"/>
+      <c r="R7" s="244"/>
+      <c r="S7" s="240" t="s">
         <v>2</v>
       </c>
-      <c r="T7" s="306"/>
-      <c r="U7" s="305">
+      <c r="T7" s="240"/>
+      <c r="U7" s="239">
         <v>789</v>
       </c>
-      <c r="V7" s="305"/>
-      <c r="W7" s="305"/>
-      <c r="X7" s="305"/>
-      <c r="Y7" s="305"/>
-      <c r="Z7" s="305"/>
-      <c r="AA7" s="305"/>
+      <c r="V7" s="239"/>
+      <c r="W7" s="239"/>
+      <c r="X7" s="239"/>
+      <c r="Y7" s="239"/>
+      <c r="Z7" s="239"/>
+      <c r="AA7" s="239"/>
       <c r="AB7" s="135"/>
       <c r="AC7" s="135"/>
       <c r="AD7" s="136"/>
@@ -4370,17 +4352,17 @@
         <v>67</v>
       </c>
       <c r="B8" s="136"/>
-      <c r="C8" s="300">
+      <c r="C8" s="243">
         <v>0</v>
       </c>
-      <c r="D8" s="236"/>
+      <c r="D8" s="271"/>
       <c r="E8" s="169" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="236">
+      <c r="F8" s="271">
         <v>1000</v>
       </c>
-      <c r="G8" s="236"/>
+      <c r="G8" s="271"/>
       <c r="H8" s="134" t="s">
         <v>19</v>
       </c>
@@ -4392,10 +4374,10 @@
       <c r="N8" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="O8" s="236">
+      <c r="O8" s="271">
         <v>0.01</v>
       </c>
-      <c r="P8" s="236"/>
+      <c r="P8" s="271"/>
       <c r="Q8" s="170" t="s">
         <v>19</v>
       </c>
@@ -4651,19 +4633,19 @@
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="137"/>
-      <c r="O9" s="300"/>
-      <c r="P9" s="300"/>
-      <c r="Q9" s="300"/>
-      <c r="R9" s="300"/>
-      <c r="S9" s="300"/>
-      <c r="T9" s="300"/>
-      <c r="U9" s="300"/>
-      <c r="V9" s="300"/>
-      <c r="W9" s="300"/>
-      <c r="X9" s="300"/>
-      <c r="Y9" s="300"/>
-      <c r="Z9" s="300"/>
-      <c r="AA9" s="300"/>
+      <c r="O9" s="243"/>
+      <c r="P9" s="243"/>
+      <c r="Q9" s="243"/>
+      <c r="R9" s="243"/>
+      <c r="S9" s="243"/>
+      <c r="T9" s="243"/>
+      <c r="U9" s="243"/>
+      <c r="V9" s="243"/>
+      <c r="W9" s="243"/>
+      <c r="X9" s="243"/>
+      <c r="Y9" s="243"/>
+      <c r="Z9" s="243"/>
+      <c r="AA9" s="243"/>
       <c r="AB9" s="135"/>
       <c r="AC9" s="135"/>
       <c r="AD9" s="136"/>
@@ -5143,29 +5125,29 @@
       <c r="D11" s="137"/>
       <c r="E11" s="137"/>
       <c r="F11" s="137"/>
-      <c r="G11" s="301"/>
-      <c r="H11" s="301"/>
-      <c r="I11" s="301"/>
-      <c r="J11" s="301"/>
-      <c r="K11" s="301"/>
-      <c r="L11" s="301"/>
-      <c r="M11" s="301"/>
-      <c r="N11" s="301"/>
+      <c r="G11" s="272"/>
+      <c r="H11" s="272"/>
+      <c r="I11" s="272"/>
+      <c r="J11" s="272"/>
+      <c r="K11" s="272"/>
+      <c r="L11" s="272"/>
+      <c r="M11" s="272"/>
+      <c r="N11" s="272"/>
       <c r="O11" s="136"/>
       <c r="P11" s="134"/>
       <c r="Q11" s="144" t="s">
         <v>73</v>
       </c>
       <c r="R11" s="144"/>
-      <c r="S11" s="311"/>
-      <c r="T11" s="311"/>
-      <c r="U11" s="311"/>
-      <c r="V11" s="311"/>
-      <c r="W11" s="311"/>
-      <c r="X11" s="311"/>
-      <c r="Y11" s="311"/>
-      <c r="Z11" s="311"/>
-      <c r="AA11" s="311"/>
+      <c r="S11" s="245"/>
+      <c r="T11" s="245"/>
+      <c r="U11" s="245"/>
+      <c r="V11" s="245"/>
+      <c r="W11" s="245"/>
+      <c r="X11" s="245"/>
+      <c r="Y11" s="245"/>
+      <c r="Z11" s="245"/>
+      <c r="AA11" s="245"/>
       <c r="AB11" s="136"/>
       <c r="AC11" s="136"/>
       <c r="AD11" s="127"/>
@@ -5395,29 +5377,29 @@
       <c r="D12" s="137"/>
       <c r="E12" s="137"/>
       <c r="F12" s="137"/>
-      <c r="G12" s="308"/>
-      <c r="H12" s="308"/>
-      <c r="I12" s="308"/>
-      <c r="J12" s="308"/>
-      <c r="K12" s="308"/>
-      <c r="L12" s="308"/>
-      <c r="M12" s="308"/>
-      <c r="N12" s="308"/>
+      <c r="G12" s="242"/>
+      <c r="H12" s="242"/>
+      <c r="I12" s="242"/>
+      <c r="J12" s="242"/>
+      <c r="K12" s="242"/>
+      <c r="L12" s="242"/>
+      <c r="M12" s="242"/>
+      <c r="N12" s="242"/>
       <c r="O12" s="136"/>
       <c r="P12" s="134"/>
       <c r="Q12" s="144" t="s">
         <v>73</v>
       </c>
       <c r="R12" s="144"/>
-      <c r="S12" s="312"/>
-      <c r="T12" s="312"/>
-      <c r="U12" s="312"/>
-      <c r="V12" s="312"/>
-      <c r="W12" s="312"/>
-      <c r="X12" s="312"/>
-      <c r="Y12" s="312"/>
-      <c r="Z12" s="312"/>
-      <c r="AA12" s="312"/>
+      <c r="S12" s="246"/>
+      <c r="T12" s="246"/>
+      <c r="U12" s="246"/>
+      <c r="V12" s="246"/>
+      <c r="W12" s="246"/>
+      <c r="X12" s="246"/>
+      <c r="Y12" s="246"/>
+      <c r="Z12" s="246"/>
+      <c r="AA12" s="246"/>
       <c r="AB12" s="136"/>
       <c r="AC12" s="136"/>
       <c r="AD12" s="127"/>
@@ -5686,10 +5668,10 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-      <c r="X14" s="310" t="s">
+      <c r="X14" s="275" t="s">
         <v>5</v>
       </c>
-      <c r="Y14" s="310"/>
+      <c r="Y14" s="275"/>
       <c r="Z14" s="229" t="s">
         <v>9</v>
       </c>
@@ -5699,1066 +5681,1066 @@
       <c r="AD14" s="1"/>
     </row>
     <row r="15" spans="1:247" ht="21" customHeight="1">
-      <c r="B15" s="275" t="s">
+      <c r="B15" s="279" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="276"/>
-      <c r="D15" s="277"/>
-      <c r="E15" s="278" t="s">
+      <c r="C15" s="280"/>
+      <c r="D15" s="281"/>
+      <c r="E15" s="273" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="279"/>
-      <c r="G15" s="279"/>
-      <c r="H15" s="279"/>
-      <c r="I15" s="279"/>
-      <c r="J15" s="279"/>
-      <c r="K15" s="279"/>
-      <c r="L15" s="279"/>
-      <c r="M15" s="279"/>
-      <c r="N15" s="279"/>
-      <c r="O15" s="279"/>
-      <c r="P15" s="279"/>
-      <c r="Q15" s="291" t="s">
+      <c r="F15" s="274"/>
+      <c r="G15" s="274"/>
+      <c r="H15" s="274"/>
+      <c r="I15" s="274"/>
+      <c r="J15" s="274"/>
+      <c r="K15" s="274"/>
+      <c r="L15" s="274"/>
+      <c r="M15" s="274"/>
+      <c r="N15" s="274"/>
+      <c r="O15" s="274"/>
+      <c r="P15" s="274"/>
+      <c r="Q15" s="262" t="s">
         <v>7</v>
       </c>
-      <c r="R15" s="292"/>
-      <c r="S15" s="293"/>
-      <c r="T15" s="287" t="s">
+      <c r="R15" s="263"/>
+      <c r="S15" s="264"/>
+      <c r="T15" s="258" t="s">
         <v>10</v>
       </c>
-      <c r="U15" s="288"/>
-      <c r="V15" s="288"/>
-      <c r="W15" s="288"/>
-      <c r="X15" s="291" t="s">
+      <c r="U15" s="259"/>
+      <c r="V15" s="259"/>
+      <c r="W15" s="259"/>
+      <c r="X15" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="Y15" s="292"/>
-      <c r="Z15" s="293"/>
+      <c r="Y15" s="263"/>
+      <c r="Z15" s="264"/>
       <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="1:247" ht="21" customHeight="1">
-      <c r="B16" s="272" t="s">
+      <c r="B16" s="276" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="273"/>
-      <c r="D16" s="274"/>
-      <c r="E16" s="278" t="s">
+      <c r="C16" s="277"/>
+      <c r="D16" s="278"/>
+      <c r="E16" s="273" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="279"/>
-      <c r="G16" s="280"/>
-      <c r="H16" s="278" t="s">
+      <c r="F16" s="274"/>
+      <c r="G16" s="282"/>
+      <c r="H16" s="273" t="s">
         <v>86</v>
       </c>
-      <c r="I16" s="279"/>
-      <c r="J16" s="280"/>
-      <c r="K16" s="278" t="s">
+      <c r="I16" s="274"/>
+      <c r="J16" s="282"/>
+      <c r="K16" s="273" t="s">
         <v>87</v>
       </c>
-      <c r="L16" s="279"/>
-      <c r="M16" s="280"/>
-      <c r="N16" s="278" t="s">
+      <c r="L16" s="274"/>
+      <c r="M16" s="282"/>
+      <c r="N16" s="273" t="s">
         <v>88</v>
       </c>
-      <c r="O16" s="279"/>
-      <c r="P16" s="279"/>
-      <c r="Q16" s="294"/>
-      <c r="R16" s="295"/>
-      <c r="S16" s="296"/>
-      <c r="T16" s="289"/>
-      <c r="U16" s="290"/>
-      <c r="V16" s="290"/>
-      <c r="W16" s="290"/>
-      <c r="X16" s="294"/>
-      <c r="Y16" s="295"/>
-      <c r="Z16" s="296"/>
+      <c r="O16" s="274"/>
+      <c r="P16" s="274"/>
+      <c r="Q16" s="265"/>
+      <c r="R16" s="266"/>
+      <c r="S16" s="267"/>
+      <c r="T16" s="260"/>
+      <c r="U16" s="261"/>
+      <c r="V16" s="261"/>
+      <c r="W16" s="261"/>
+      <c r="X16" s="265"/>
+      <c r="Y16" s="266"/>
+      <c r="Z16" s="267"/>
       <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="2:28" ht="21" customHeight="1">
-      <c r="B17" s="263">
+      <c r="B17" s="286">
         <v>0</v>
       </c>
-      <c r="C17" s="264"/>
-      <c r="D17" s="265"/>
-      <c r="E17" s="254">
+      <c r="C17" s="287"/>
+      <c r="D17" s="288"/>
+      <c r="E17" s="289">
         <v>0</v>
       </c>
-      <c r="F17" s="255"/>
-      <c r="G17" s="256"/>
-      <c r="H17" s="254">
+      <c r="F17" s="290"/>
+      <c r="G17" s="291"/>
+      <c r="H17" s="289">
         <v>0</v>
       </c>
-      <c r="I17" s="255"/>
-      <c r="J17" s="256"/>
-      <c r="K17" s="254">
+      <c r="I17" s="290"/>
+      <c r="J17" s="291"/>
+      <c r="K17" s="289">
         <v>0</v>
       </c>
-      <c r="L17" s="255"/>
-      <c r="M17" s="256"/>
-      <c r="N17" s="254">
+      <c r="L17" s="290"/>
+      <c r="M17" s="291"/>
+      <c r="N17" s="289">
         <v>0</v>
       </c>
-      <c r="O17" s="255"/>
-      <c r="P17" s="256"/>
-      <c r="Q17" s="242">
+      <c r="O17" s="290"/>
+      <c r="P17" s="291"/>
+      <c r="Q17" s="231">
         <f>AVERAGE(E17:O17)</f>
         <v>0</v>
       </c>
-      <c r="R17" s="243"/>
-      <c r="S17" s="244"/>
-      <c r="T17" s="297">
-        <f>STDEV(E17:P17)/SQRT(4)</f>
+      <c r="R17" s="232"/>
+      <c r="S17" s="233"/>
+      <c r="T17" s="268">
+        <f>_xlfn.STDEV.S(E17:P17)/SQRT(4)</f>
         <v>0</v>
       </c>
-      <c r="U17" s="298"/>
-      <c r="V17" s="298"/>
-      <c r="W17" s="299"/>
-      <c r="X17" s="269">
+      <c r="U17" s="269"/>
+      <c r="V17" s="269"/>
+      <c r="W17" s="270"/>
+      <c r="X17" s="234">
         <f>Q17-B17</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="270"/>
-      <c r="Z17" s="271"/>
+      <c r="Y17" s="235"/>
+      <c r="Z17" s="236"/>
       <c r="AB17" s="1"/>
     </row>
     <row r="18" spans="2:28" ht="21" customHeight="1">
-      <c r="B18" s="260">
+      <c r="B18" s="255">
         <v>1</v>
       </c>
-      <c r="C18" s="261"/>
-      <c r="D18" s="262"/>
-      <c r="E18" s="245">
+      <c r="C18" s="256"/>
+      <c r="D18" s="257"/>
+      <c r="E18" s="252">
         <v>1</v>
       </c>
-      <c r="F18" s="246"/>
-      <c r="G18" s="247"/>
-      <c r="H18" s="245">
+      <c r="F18" s="253"/>
+      <c r="G18" s="254"/>
+      <c r="H18" s="252">
         <v>1</v>
       </c>
-      <c r="I18" s="246"/>
-      <c r="J18" s="247"/>
-      <c r="K18" s="245">
+      <c r="I18" s="253"/>
+      <c r="J18" s="254"/>
+      <c r="K18" s="252">
         <v>1</v>
       </c>
-      <c r="L18" s="246"/>
-      <c r="M18" s="247"/>
-      <c r="N18" s="245">
+      <c r="L18" s="253"/>
+      <c r="M18" s="254"/>
+      <c r="N18" s="252">
         <v>1</v>
       </c>
-      <c r="O18" s="246"/>
-      <c r="P18" s="247"/>
-      <c r="Q18" s="242">
+      <c r="O18" s="253"/>
+      <c r="P18" s="254"/>
+      <c r="Q18" s="231">
         <f t="shared" ref="Q18:Q37" si="0">AVERAGE(E18:O18)</f>
         <v>1</v>
       </c>
-      <c r="R18" s="243"/>
-      <c r="S18" s="244"/>
-      <c r="T18" s="281">
-        <f t="shared" ref="T18:T37" si="1">STDEV(E18:P18)/SQRT(4)</f>
+      <c r="R18" s="232"/>
+      <c r="S18" s="233"/>
+      <c r="T18" s="268">
+        <f t="shared" ref="T18:T37" si="1">_xlfn.STDEV.S(E18:P18)/SQRT(4)</f>
         <v>0</v>
       </c>
-      <c r="U18" s="282"/>
-      <c r="V18" s="282"/>
-      <c r="W18" s="283"/>
-      <c r="X18" s="269">
+      <c r="U18" s="269"/>
+      <c r="V18" s="269"/>
+      <c r="W18" s="270"/>
+      <c r="X18" s="234">
         <f t="shared" ref="X18:X37" si="2">Q18-B18</f>
         <v>0</v>
       </c>
-      <c r="Y18" s="270"/>
-      <c r="Z18" s="271"/>
+      <c r="Y18" s="235"/>
+      <c r="Z18" s="236"/>
       <c r="AB18" s="1"/>
     </row>
     <row r="19" spans="2:28" ht="21" customHeight="1">
-      <c r="B19" s="260">
+      <c r="B19" s="255">
         <v>1.5</v>
       </c>
-      <c r="C19" s="261"/>
-      <c r="D19" s="262"/>
-      <c r="E19" s="245">
+      <c r="C19" s="256"/>
+      <c r="D19" s="257"/>
+      <c r="E19" s="252">
         <v>1.5</v>
       </c>
-      <c r="F19" s="246"/>
-      <c r="G19" s="247"/>
-      <c r="H19" s="245">
+      <c r="F19" s="253"/>
+      <c r="G19" s="254"/>
+      <c r="H19" s="252">
         <v>1.5</v>
       </c>
-      <c r="I19" s="246"/>
-      <c r="J19" s="247"/>
-      <c r="K19" s="245">
+      <c r="I19" s="253"/>
+      <c r="J19" s="254"/>
+      <c r="K19" s="252">
         <v>1.5</v>
       </c>
-      <c r="L19" s="246"/>
-      <c r="M19" s="247"/>
-      <c r="N19" s="245">
+      <c r="L19" s="253"/>
+      <c r="M19" s="254"/>
+      <c r="N19" s="252">
         <v>1.5</v>
       </c>
-      <c r="O19" s="246"/>
-      <c r="P19" s="247"/>
-      <c r="Q19" s="242">
+      <c r="O19" s="253"/>
+      <c r="P19" s="254"/>
+      <c r="Q19" s="231">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="R19" s="243"/>
-      <c r="S19" s="244"/>
-      <c r="T19" s="281">
+      <c r="R19" s="232"/>
+      <c r="S19" s="233"/>
+      <c r="T19" s="268">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U19" s="282"/>
-      <c r="V19" s="282"/>
-      <c r="W19" s="283"/>
-      <c r="X19" s="269">
+      <c r="U19" s="269"/>
+      <c r="V19" s="269"/>
+      <c r="W19" s="270"/>
+      <c r="X19" s="234">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="270"/>
-      <c r="Z19" s="271"/>
+      <c r="Y19" s="235"/>
+      <c r="Z19" s="236"/>
       <c r="AB19" s="1"/>
     </row>
     <row r="20" spans="2:28" ht="21" customHeight="1">
-      <c r="B20" s="260">
+      <c r="B20" s="255">
         <v>2</v>
       </c>
-      <c r="C20" s="261"/>
-      <c r="D20" s="262"/>
-      <c r="E20" s="245">
+      <c r="C20" s="256"/>
+      <c r="D20" s="257"/>
+      <c r="E20" s="252">
         <v>5</v>
       </c>
-      <c r="F20" s="246"/>
-      <c r="G20" s="247"/>
-      <c r="H20" s="245">
+      <c r="F20" s="253"/>
+      <c r="G20" s="254"/>
+      <c r="H20" s="252">
         <v>5</v>
       </c>
-      <c r="I20" s="246"/>
-      <c r="J20" s="247"/>
-      <c r="K20" s="245">
+      <c r="I20" s="253"/>
+      <c r="J20" s="254"/>
+      <c r="K20" s="252">
         <v>5</v>
       </c>
-      <c r="L20" s="246"/>
-      <c r="M20" s="247"/>
-      <c r="N20" s="245">
+      <c r="L20" s="253"/>
+      <c r="M20" s="254"/>
+      <c r="N20" s="252">
         <v>5</v>
       </c>
-      <c r="O20" s="246"/>
-      <c r="P20" s="247"/>
-      <c r="Q20" s="242">
+      <c r="O20" s="253"/>
+      <c r="P20" s="254"/>
+      <c r="Q20" s="231">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="R20" s="243"/>
-      <c r="S20" s="244"/>
-      <c r="T20" s="281">
+      <c r="R20" s="232"/>
+      <c r="S20" s="233"/>
+      <c r="T20" s="268">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U20" s="282"/>
-      <c r="V20" s="282"/>
-      <c r="W20" s="283"/>
-      <c r="X20" s="269">
+      <c r="U20" s="269"/>
+      <c r="V20" s="269"/>
+      <c r="W20" s="270"/>
+      <c r="X20" s="234">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="Y20" s="270"/>
-      <c r="Z20" s="271"/>
+      <c r="Y20" s="235"/>
+      <c r="Z20" s="236"/>
       <c r="AB20" s="1"/>
     </row>
     <row r="21" spans="2:28" ht="21" customHeight="1">
-      <c r="B21" s="260">
+      <c r="B21" s="255">
         <v>5</v>
       </c>
-      <c r="C21" s="261"/>
-      <c r="D21" s="262"/>
-      <c r="E21" s="245">
+      <c r="C21" s="256"/>
+      <c r="D21" s="257"/>
+      <c r="E21" s="252">
         <v>10</v>
       </c>
-      <c r="F21" s="246"/>
-      <c r="G21" s="247"/>
-      <c r="H21" s="245">
+      <c r="F21" s="253"/>
+      <c r="G21" s="254"/>
+      <c r="H21" s="252">
         <v>10</v>
       </c>
-      <c r="I21" s="246"/>
-      <c r="J21" s="247"/>
-      <c r="K21" s="245">
+      <c r="I21" s="253"/>
+      <c r="J21" s="254"/>
+      <c r="K21" s="252">
         <v>10</v>
       </c>
-      <c r="L21" s="246"/>
-      <c r="M21" s="247"/>
-      <c r="N21" s="245">
+      <c r="L21" s="253"/>
+      <c r="M21" s="254"/>
+      <c r="N21" s="252">
         <v>10</v>
       </c>
-      <c r="O21" s="246"/>
-      <c r="P21" s="247"/>
-      <c r="Q21" s="242">
+      <c r="O21" s="253"/>
+      <c r="P21" s="254"/>
+      <c r="Q21" s="231">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="R21" s="243"/>
-      <c r="S21" s="244"/>
-      <c r="T21" s="281">
+      <c r="R21" s="232"/>
+      <c r="S21" s="233"/>
+      <c r="T21" s="268">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U21" s="282"/>
-      <c r="V21" s="282"/>
-      <c r="W21" s="283"/>
-      <c r="X21" s="269">
+      <c r="U21" s="269"/>
+      <c r="V21" s="269"/>
+      <c r="W21" s="270"/>
+      <c r="X21" s="234">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="Y21" s="270"/>
-      <c r="Z21" s="271"/>
+      <c r="Y21" s="235"/>
+      <c r="Z21" s="236"/>
       <c r="AB21" s="1"/>
     </row>
     <row r="22" spans="2:28" ht="21" customHeight="1">
-      <c r="B22" s="260">
+      <c r="B22" s="255">
         <v>10</v>
       </c>
-      <c r="C22" s="261"/>
-      <c r="D22" s="262"/>
-      <c r="E22" s="245">
+      <c r="C22" s="256"/>
+      <c r="D22" s="257"/>
+      <c r="E22" s="252">
         <v>20</v>
       </c>
-      <c r="F22" s="246"/>
-      <c r="G22" s="247"/>
-      <c r="H22" s="245">
+      <c r="F22" s="253"/>
+      <c r="G22" s="254"/>
+      <c r="H22" s="252">
         <v>20</v>
       </c>
-      <c r="I22" s="246"/>
-      <c r="J22" s="247"/>
-      <c r="K22" s="245">
+      <c r="I22" s="253"/>
+      <c r="J22" s="254"/>
+      <c r="K22" s="252">
         <v>20</v>
       </c>
-      <c r="L22" s="246"/>
-      <c r="M22" s="247"/>
-      <c r="N22" s="245">
+      <c r="L22" s="253"/>
+      <c r="M22" s="254"/>
+      <c r="N22" s="252">
         <v>20</v>
       </c>
-      <c r="O22" s="246"/>
-      <c r="P22" s="247"/>
-      <c r="Q22" s="242">
+      <c r="O22" s="253"/>
+      <c r="P22" s="254"/>
+      <c r="Q22" s="231">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="R22" s="243"/>
-      <c r="S22" s="244"/>
-      <c r="T22" s="281">
+      <c r="R22" s="232"/>
+      <c r="S22" s="233"/>
+      <c r="T22" s="268">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U22" s="282"/>
-      <c r="V22" s="282"/>
-      <c r="W22" s="283"/>
-      <c r="X22" s="269">
+      <c r="U22" s="269"/>
+      <c r="V22" s="269"/>
+      <c r="W22" s="270"/>
+      <c r="X22" s="234">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="Y22" s="270"/>
-      <c r="Z22" s="271"/>
+      <c r="Y22" s="235"/>
+      <c r="Z22" s="236"/>
       <c r="AB22" s="1"/>
     </row>
     <row r="23" spans="2:28" ht="21" customHeight="1">
-      <c r="B23" s="260">
+      <c r="B23" s="255">
         <v>20</v>
       </c>
-      <c r="C23" s="261"/>
-      <c r="D23" s="262"/>
-      <c r="E23" s="245">
+      <c r="C23" s="256"/>
+      <c r="D23" s="257"/>
+      <c r="E23" s="252">
         <v>50</v>
       </c>
-      <c r="F23" s="246"/>
-      <c r="G23" s="247"/>
-      <c r="H23" s="245">
+      <c r="F23" s="253"/>
+      <c r="G23" s="254"/>
+      <c r="H23" s="252">
         <v>50</v>
       </c>
-      <c r="I23" s="246"/>
-      <c r="J23" s="247"/>
-      <c r="K23" s="245">
+      <c r="I23" s="253"/>
+      <c r="J23" s="254"/>
+      <c r="K23" s="252">
         <v>50</v>
       </c>
-      <c r="L23" s="246"/>
-      <c r="M23" s="247"/>
-      <c r="N23" s="245">
+      <c r="L23" s="253"/>
+      <c r="M23" s="254"/>
+      <c r="N23" s="252">
         <v>50</v>
       </c>
-      <c r="O23" s="246"/>
-      <c r="P23" s="247"/>
-      <c r="Q23" s="242">
+      <c r="O23" s="253"/>
+      <c r="P23" s="254"/>
+      <c r="Q23" s="231">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="R23" s="243"/>
-      <c r="S23" s="244"/>
-      <c r="T23" s="281">
+      <c r="R23" s="232"/>
+      <c r="S23" s="233"/>
+      <c r="T23" s="268">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U23" s="282"/>
-      <c r="V23" s="282"/>
-      <c r="W23" s="283"/>
-      <c r="X23" s="269">
+      <c r="U23" s="269"/>
+      <c r="V23" s="269"/>
+      <c r="W23" s="270"/>
+      <c r="X23" s="234">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="Y23" s="270"/>
-      <c r="Z23" s="271"/>
+      <c r="Y23" s="235"/>
+      <c r="Z23" s="236"/>
       <c r="AB23" s="1"/>
     </row>
     <row r="24" spans="2:28" ht="21" customHeight="1">
-      <c r="B24" s="260">
+      <c r="B24" s="255">
         <v>50</v>
       </c>
-      <c r="C24" s="261"/>
-      <c r="D24" s="262"/>
-      <c r="E24" s="245">
+      <c r="C24" s="256"/>
+      <c r="D24" s="257"/>
+      <c r="E24" s="252">
         <v>100</v>
       </c>
-      <c r="F24" s="246"/>
-      <c r="G24" s="247"/>
-      <c r="H24" s="245">
+      <c r="F24" s="253"/>
+      <c r="G24" s="254"/>
+      <c r="H24" s="252">
         <v>100</v>
       </c>
-      <c r="I24" s="246"/>
-      <c r="J24" s="247"/>
-      <c r="K24" s="245">
+      <c r="I24" s="253"/>
+      <c r="J24" s="254"/>
+      <c r="K24" s="252">
         <v>100</v>
       </c>
-      <c r="L24" s="246"/>
-      <c r="M24" s="247"/>
-      <c r="N24" s="245">
+      <c r="L24" s="253"/>
+      <c r="M24" s="254"/>
+      <c r="N24" s="252">
         <v>100</v>
       </c>
-      <c r="O24" s="246"/>
-      <c r="P24" s="247"/>
-      <c r="Q24" s="242">
+      <c r="O24" s="253"/>
+      <c r="P24" s="254"/>
+      <c r="Q24" s="231">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="R24" s="243"/>
-      <c r="S24" s="244"/>
-      <c r="T24" s="281">
+      <c r="R24" s="232"/>
+      <c r="S24" s="233"/>
+      <c r="T24" s="268">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U24" s="282"/>
-      <c r="V24" s="282"/>
-      <c r="W24" s="283"/>
-      <c r="X24" s="269">
+      <c r="U24" s="269"/>
+      <c r="V24" s="269"/>
+      <c r="W24" s="270"/>
+      <c r="X24" s="234">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="Y24" s="270"/>
-      <c r="Z24" s="271"/>
+      <c r="Y24" s="235"/>
+      <c r="Z24" s="236"/>
       <c r="AB24" s="1"/>
     </row>
     <row r="25" spans="2:28" ht="21" customHeight="1">
-      <c r="B25" s="260">
+      <c r="B25" s="255">
         <v>100</v>
       </c>
-      <c r="C25" s="261"/>
-      <c r="D25" s="262"/>
-      <c r="E25" s="245">
+      <c r="C25" s="256"/>
+      <c r="D25" s="257"/>
+      <c r="E25" s="252">
         <v>150</v>
       </c>
-      <c r="F25" s="246"/>
-      <c r="G25" s="247"/>
-      <c r="H25" s="245">
+      <c r="F25" s="253"/>
+      <c r="G25" s="254"/>
+      <c r="H25" s="252">
         <v>150</v>
       </c>
-      <c r="I25" s="246"/>
-      <c r="J25" s="247"/>
-      <c r="K25" s="245">
+      <c r="I25" s="253"/>
+      <c r="J25" s="254"/>
+      <c r="K25" s="252">
         <v>150</v>
       </c>
-      <c r="L25" s="246"/>
-      <c r="M25" s="247"/>
-      <c r="N25" s="245">
+      <c r="L25" s="253"/>
+      <c r="M25" s="254"/>
+      <c r="N25" s="252">
         <v>150</v>
       </c>
-      <c r="O25" s="246"/>
-      <c r="P25" s="247"/>
-      <c r="Q25" s="242">
+      <c r="O25" s="253"/>
+      <c r="P25" s="254"/>
+      <c r="Q25" s="231">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="R25" s="243"/>
-      <c r="S25" s="244"/>
-      <c r="T25" s="281">
+      <c r="R25" s="232"/>
+      <c r="S25" s="233"/>
+      <c r="T25" s="268">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U25" s="282"/>
-      <c r="V25" s="282"/>
-      <c r="W25" s="283"/>
-      <c r="X25" s="269">
+      <c r="U25" s="269"/>
+      <c r="V25" s="269"/>
+      <c r="W25" s="270"/>
+      <c r="X25" s="234">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="Y25" s="270"/>
-      <c r="Z25" s="271"/>
+      <c r="Y25" s="235"/>
+      <c r="Z25" s="236"/>
       <c r="AB25" s="1"/>
     </row>
     <row r="26" spans="2:28" ht="21" customHeight="1">
-      <c r="B26" s="260">
+      <c r="B26" s="255">
         <v>150</v>
       </c>
-      <c r="C26" s="261"/>
-      <c r="D26" s="262"/>
-      <c r="E26" s="245">
+      <c r="C26" s="256"/>
+      <c r="D26" s="257"/>
+      <c r="E26" s="252">
         <v>200</v>
       </c>
-      <c r="F26" s="246"/>
-      <c r="G26" s="247"/>
-      <c r="H26" s="245">
+      <c r="F26" s="253"/>
+      <c r="G26" s="254"/>
+      <c r="H26" s="252">
         <v>200</v>
       </c>
-      <c r="I26" s="246"/>
-      <c r="J26" s="247"/>
-      <c r="K26" s="245">
+      <c r="I26" s="253"/>
+      <c r="J26" s="254"/>
+      <c r="K26" s="252">
         <v>200</v>
       </c>
-      <c r="L26" s="246"/>
-      <c r="M26" s="247"/>
-      <c r="N26" s="245">
+      <c r="L26" s="253"/>
+      <c r="M26" s="254"/>
+      <c r="N26" s="252">
         <v>200</v>
       </c>
-      <c r="O26" s="246"/>
-      <c r="P26" s="247"/>
-      <c r="Q26" s="242">
+      <c r="O26" s="253"/>
+      <c r="P26" s="254"/>
+      <c r="Q26" s="231">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="R26" s="243"/>
-      <c r="S26" s="244"/>
-      <c r="T26" s="281">
+      <c r="R26" s="232"/>
+      <c r="S26" s="233"/>
+      <c r="T26" s="268">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U26" s="282"/>
-      <c r="V26" s="282"/>
-      <c r="W26" s="283"/>
-      <c r="X26" s="269">
+      <c r="U26" s="269"/>
+      <c r="V26" s="269"/>
+      <c r="W26" s="270"/>
+      <c r="X26" s="234">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="Y26" s="270"/>
-      <c r="Z26" s="271"/>
+      <c r="Y26" s="235"/>
+      <c r="Z26" s="236"/>
       <c r="AB26" s="1"/>
     </row>
     <row r="27" spans="2:28" ht="21" customHeight="1">
-      <c r="B27" s="260">
+      <c r="B27" s="255">
         <v>200</v>
       </c>
-      <c r="C27" s="261"/>
-      <c r="D27" s="262"/>
-      <c r="E27" s="245">
+      <c r="C27" s="256"/>
+      <c r="D27" s="257"/>
+      <c r="E27" s="252">
         <v>250</v>
       </c>
-      <c r="F27" s="246"/>
-      <c r="G27" s="247"/>
-      <c r="H27" s="245">
+      <c r="F27" s="253"/>
+      <c r="G27" s="254"/>
+      <c r="H27" s="252">
         <v>250</v>
       </c>
-      <c r="I27" s="246"/>
-      <c r="J27" s="247"/>
-      <c r="K27" s="245">
+      <c r="I27" s="253"/>
+      <c r="J27" s="254"/>
+      <c r="K27" s="252">
         <v>250</v>
       </c>
-      <c r="L27" s="246"/>
-      <c r="M27" s="247"/>
-      <c r="N27" s="245">
+      <c r="L27" s="253"/>
+      <c r="M27" s="254"/>
+      <c r="N27" s="252">
         <v>250</v>
       </c>
-      <c r="O27" s="246"/>
-      <c r="P27" s="247"/>
-      <c r="Q27" s="242">
+      <c r="O27" s="253"/>
+      <c r="P27" s="254"/>
+      <c r="Q27" s="231">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="R27" s="243"/>
-      <c r="S27" s="244"/>
-      <c r="T27" s="281">
+      <c r="R27" s="232"/>
+      <c r="S27" s="233"/>
+      <c r="T27" s="268">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U27" s="282"/>
-      <c r="V27" s="282"/>
-      <c r="W27" s="283"/>
-      <c r="X27" s="269">
+      <c r="U27" s="269"/>
+      <c r="V27" s="269"/>
+      <c r="W27" s="270"/>
+      <c r="X27" s="234">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="Y27" s="270"/>
-      <c r="Z27" s="271"/>
+      <c r="Y27" s="235"/>
+      <c r="Z27" s="236"/>
       <c r="AB27" s="1"/>
     </row>
     <row r="28" spans="2:28" ht="21" customHeight="1">
-      <c r="B28" s="260">
+      <c r="B28" s="255">
         <v>250</v>
       </c>
-      <c r="C28" s="261"/>
-      <c r="D28" s="262"/>
-      <c r="E28" s="245">
+      <c r="C28" s="256"/>
+      <c r="D28" s="257"/>
+      <c r="E28" s="252">
         <v>300</v>
       </c>
-      <c r="F28" s="246"/>
-      <c r="G28" s="247"/>
-      <c r="H28" s="245">
+      <c r="F28" s="253"/>
+      <c r="G28" s="254"/>
+      <c r="H28" s="252">
         <v>300</v>
       </c>
-      <c r="I28" s="246"/>
-      <c r="J28" s="247"/>
-      <c r="K28" s="245">
+      <c r="I28" s="253"/>
+      <c r="J28" s="254"/>
+      <c r="K28" s="252">
         <v>300</v>
       </c>
-      <c r="L28" s="246"/>
-      <c r="M28" s="247"/>
-      <c r="N28" s="245">
+      <c r="L28" s="253"/>
+      <c r="M28" s="254"/>
+      <c r="N28" s="252">
         <v>300</v>
       </c>
-      <c r="O28" s="246"/>
-      <c r="P28" s="247"/>
-      <c r="Q28" s="242">
+      <c r="O28" s="253"/>
+      <c r="P28" s="254"/>
+      <c r="Q28" s="231">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="R28" s="243"/>
-      <c r="S28" s="244"/>
-      <c r="T28" s="281">
+      <c r="R28" s="232"/>
+      <c r="S28" s="233"/>
+      <c r="T28" s="268">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U28" s="282"/>
-      <c r="V28" s="282"/>
-      <c r="W28" s="283"/>
-      <c r="X28" s="269">
+      <c r="U28" s="269"/>
+      <c r="V28" s="269"/>
+      <c r="W28" s="270"/>
+      <c r="X28" s="234">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="Y28" s="270"/>
-      <c r="Z28" s="271"/>
+      <c r="Y28" s="235"/>
+      <c r="Z28" s="236"/>
       <c r="AB28" s="1"/>
     </row>
     <row r="29" spans="2:28" ht="21" customHeight="1">
-      <c r="B29" s="260">
+      <c r="B29" s="255">
         <v>300</v>
       </c>
-      <c r="C29" s="261"/>
-      <c r="D29" s="262"/>
-      <c r="E29" s="248">
+      <c r="C29" s="256"/>
+      <c r="D29" s="257"/>
+      <c r="E29" s="249">
         <v>400</v>
       </c>
-      <c r="F29" s="249"/>
-      <c r="G29" s="250"/>
-      <c r="H29" s="248">
+      <c r="F29" s="250"/>
+      <c r="G29" s="251"/>
+      <c r="H29" s="249">
         <v>400</v>
       </c>
-      <c r="I29" s="249"/>
-      <c r="J29" s="250"/>
-      <c r="K29" s="248">
+      <c r="I29" s="250"/>
+      <c r="J29" s="251"/>
+      <c r="K29" s="249">
         <v>400</v>
       </c>
-      <c r="L29" s="249"/>
-      <c r="M29" s="250"/>
-      <c r="N29" s="248">
+      <c r="L29" s="250"/>
+      <c r="M29" s="251"/>
+      <c r="N29" s="249">
         <v>400</v>
       </c>
-      <c r="O29" s="249"/>
-      <c r="P29" s="250"/>
-      <c r="Q29" s="242">
+      <c r="O29" s="250"/>
+      <c r="P29" s="251"/>
+      <c r="Q29" s="231">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="R29" s="243"/>
-      <c r="S29" s="244"/>
-      <c r="T29" s="281">
+      <c r="R29" s="232"/>
+      <c r="S29" s="233"/>
+      <c r="T29" s="268">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U29" s="282"/>
-      <c r="V29" s="282"/>
-      <c r="W29" s="283"/>
-      <c r="X29" s="269">
+      <c r="U29" s="269"/>
+      <c r="V29" s="269"/>
+      <c r="W29" s="270"/>
+      <c r="X29" s="234">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="Y29" s="270"/>
-      <c r="Z29" s="271"/>
+      <c r="Y29" s="235"/>
+      <c r="Z29" s="236"/>
       <c r="AB29" s="1"/>
     </row>
     <row r="30" spans="2:28" ht="21" customHeight="1">
-      <c r="B30" s="260">
+      <c r="B30" s="255">
         <v>400</v>
       </c>
-      <c r="C30" s="261"/>
-      <c r="D30" s="262"/>
-      <c r="E30" s="248">
+      <c r="C30" s="256"/>
+      <c r="D30" s="257"/>
+      <c r="E30" s="249">
         <v>500</v>
       </c>
-      <c r="F30" s="249"/>
-      <c r="G30" s="250"/>
-      <c r="H30" s="248">
+      <c r="F30" s="250"/>
+      <c r="G30" s="251"/>
+      <c r="H30" s="249">
         <v>500</v>
       </c>
-      <c r="I30" s="249"/>
-      <c r="J30" s="250"/>
-      <c r="K30" s="248">
+      <c r="I30" s="250"/>
+      <c r="J30" s="251"/>
+      <c r="K30" s="249">
         <v>500</v>
       </c>
-      <c r="L30" s="249"/>
-      <c r="M30" s="250"/>
-      <c r="N30" s="248">
+      <c r="L30" s="250"/>
+      <c r="M30" s="251"/>
+      <c r="N30" s="249">
         <v>500</v>
       </c>
-      <c r="O30" s="249"/>
-      <c r="P30" s="250"/>
-      <c r="Q30" s="242">
+      <c r="O30" s="250"/>
+      <c r="P30" s="251"/>
+      <c r="Q30" s="231">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="R30" s="243"/>
-      <c r="S30" s="244"/>
-      <c r="T30" s="281">
+      <c r="R30" s="232"/>
+      <c r="S30" s="233"/>
+      <c r="T30" s="268">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U30" s="282"/>
-      <c r="V30" s="282"/>
-      <c r="W30" s="283"/>
-      <c r="X30" s="269">
+      <c r="U30" s="269"/>
+      <c r="V30" s="269"/>
+      <c r="W30" s="270"/>
+      <c r="X30" s="234">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="Y30" s="270"/>
-      <c r="Z30" s="271"/>
+      <c r="Y30" s="235"/>
+      <c r="Z30" s="236"/>
       <c r="AB30" s="1"/>
     </row>
     <row r="31" spans="2:28" ht="21" customHeight="1">
-      <c r="B31" s="260">
+      <c r="B31" s="255">
         <v>450</v>
       </c>
-      <c r="C31" s="261"/>
-      <c r="D31" s="262"/>
-      <c r="E31" s="248">
+      <c r="C31" s="256"/>
+      <c r="D31" s="257"/>
+      <c r="E31" s="249">
         <v>600</v>
       </c>
-      <c r="F31" s="249"/>
-      <c r="G31" s="250"/>
-      <c r="H31" s="248">
+      <c r="F31" s="250"/>
+      <c r="G31" s="251"/>
+      <c r="H31" s="249">
         <v>600</v>
       </c>
-      <c r="I31" s="249"/>
-      <c r="J31" s="250"/>
-      <c r="K31" s="248">
+      <c r="I31" s="250"/>
+      <c r="J31" s="251"/>
+      <c r="K31" s="249">
         <v>600</v>
       </c>
-      <c r="L31" s="249"/>
-      <c r="M31" s="250"/>
-      <c r="N31" s="248">
+      <c r="L31" s="250"/>
+      <c r="M31" s="251"/>
+      <c r="N31" s="249">
         <v>600</v>
       </c>
-      <c r="O31" s="249"/>
-      <c r="P31" s="250"/>
-      <c r="Q31" s="242">
+      <c r="O31" s="250"/>
+      <c r="P31" s="251"/>
+      <c r="Q31" s="231">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="R31" s="243"/>
-      <c r="S31" s="244"/>
-      <c r="T31" s="281">
+      <c r="R31" s="232"/>
+      <c r="S31" s="233"/>
+      <c r="T31" s="268">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U31" s="282"/>
-      <c r="V31" s="282"/>
-      <c r="W31" s="283"/>
-      <c r="X31" s="269">
+      <c r="U31" s="269"/>
+      <c r="V31" s="269"/>
+      <c r="W31" s="270"/>
+      <c r="X31" s="234">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="Y31" s="270"/>
-      <c r="Z31" s="271"/>
+      <c r="Y31" s="235"/>
+      <c r="Z31" s="236"/>
       <c r="AB31" s="1"/>
     </row>
     <row r="32" spans="2:28" ht="21" customHeight="1">
-      <c r="B32" s="260">
+      <c r="B32" s="255">
         <v>500</v>
       </c>
-      <c r="C32" s="261"/>
-      <c r="D32" s="262"/>
-      <c r="E32" s="248">
+      <c r="C32" s="256"/>
+      <c r="D32" s="257"/>
+      <c r="E32" s="249">
         <v>700</v>
       </c>
-      <c r="F32" s="249"/>
-      <c r="G32" s="250"/>
-      <c r="H32" s="248">
+      <c r="F32" s="250"/>
+      <c r="G32" s="251"/>
+      <c r="H32" s="249">
         <v>700</v>
       </c>
-      <c r="I32" s="249"/>
-      <c r="J32" s="250"/>
-      <c r="K32" s="248">
+      <c r="I32" s="250"/>
+      <c r="J32" s="251"/>
+      <c r="K32" s="249">
         <v>700</v>
       </c>
-      <c r="L32" s="249"/>
-      <c r="M32" s="250"/>
-      <c r="N32" s="248">
+      <c r="L32" s="250"/>
+      <c r="M32" s="251"/>
+      <c r="N32" s="249">
         <v>700</v>
       </c>
-      <c r="O32" s="249"/>
-      <c r="P32" s="250"/>
-      <c r="Q32" s="242">
+      <c r="O32" s="250"/>
+      <c r="P32" s="251"/>
+      <c r="Q32" s="231">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="R32" s="243"/>
-      <c r="S32" s="244"/>
-      <c r="T32" s="281">
+      <c r="R32" s="232"/>
+      <c r="S32" s="233"/>
+      <c r="T32" s="268">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U32" s="282"/>
-      <c r="V32" s="282"/>
-      <c r="W32" s="283"/>
-      <c r="X32" s="269">
+      <c r="U32" s="269"/>
+      <c r="V32" s="269"/>
+      <c r="W32" s="270"/>
+      <c r="X32" s="234">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="Y32" s="270"/>
-      <c r="Z32" s="271"/>
+      <c r="Y32" s="235"/>
+      <c r="Z32" s="236"/>
       <c r="AB32" s="1"/>
     </row>
     <row r="33" spans="1:30" ht="21" customHeight="1">
-      <c r="B33" s="260">
+      <c r="B33" s="255">
         <v>600</v>
       </c>
-      <c r="C33" s="261"/>
-      <c r="D33" s="262"/>
-      <c r="E33" s="248">
+      <c r="C33" s="256"/>
+      <c r="D33" s="257"/>
+      <c r="E33" s="249">
         <v>800</v>
       </c>
-      <c r="F33" s="249"/>
-      <c r="G33" s="250"/>
-      <c r="H33" s="248">
+      <c r="F33" s="250"/>
+      <c r="G33" s="251"/>
+      <c r="H33" s="249">
         <v>800</v>
       </c>
-      <c r="I33" s="249"/>
-      <c r="J33" s="250"/>
-      <c r="K33" s="248">
+      <c r="I33" s="250"/>
+      <c r="J33" s="251"/>
+      <c r="K33" s="249">
         <v>800</v>
       </c>
-      <c r="L33" s="249"/>
-      <c r="M33" s="250"/>
-      <c r="N33" s="248">
+      <c r="L33" s="250"/>
+      <c r="M33" s="251"/>
+      <c r="N33" s="249">
         <v>800</v>
       </c>
-      <c r="O33" s="249"/>
-      <c r="P33" s="250"/>
-      <c r="Q33" s="242">
+      <c r="O33" s="250"/>
+      <c r="P33" s="251"/>
+      <c r="Q33" s="231">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="R33" s="243"/>
-      <c r="S33" s="244"/>
-      <c r="T33" s="281">
+      <c r="R33" s="232"/>
+      <c r="S33" s="233"/>
+      <c r="T33" s="268">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U33" s="282"/>
-      <c r="V33" s="282"/>
-      <c r="W33" s="283"/>
-      <c r="X33" s="269">
+      <c r="U33" s="269"/>
+      <c r="V33" s="269"/>
+      <c r="W33" s="270"/>
+      <c r="X33" s="234">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="Y33" s="270"/>
-      <c r="Z33" s="271"/>
+      <c r="Y33" s="235"/>
+      <c r="Z33" s="236"/>
       <c r="AB33" s="1"/>
     </row>
     <row r="34" spans="1:30" ht="21" customHeight="1">
-      <c r="B34" s="260">
+      <c r="B34" s="255">
         <v>700</v>
       </c>
-      <c r="C34" s="261"/>
-      <c r="D34" s="262"/>
-      <c r="E34" s="248">
+      <c r="C34" s="256"/>
+      <c r="D34" s="257"/>
+      <c r="E34" s="249">
         <v>900</v>
       </c>
-      <c r="F34" s="249"/>
-      <c r="G34" s="250"/>
-      <c r="H34" s="248">
+      <c r="F34" s="250"/>
+      <c r="G34" s="251"/>
+      <c r="H34" s="249">
         <v>900</v>
       </c>
-      <c r="I34" s="249"/>
-      <c r="J34" s="250"/>
-      <c r="K34" s="248">
+      <c r="I34" s="250"/>
+      <c r="J34" s="251"/>
+      <c r="K34" s="249">
         <v>900</v>
       </c>
-      <c r="L34" s="249"/>
-      <c r="M34" s="250"/>
-      <c r="N34" s="248">
+      <c r="L34" s="250"/>
+      <c r="M34" s="251"/>
+      <c r="N34" s="249">
         <v>900</v>
       </c>
-      <c r="O34" s="249"/>
-      <c r="P34" s="250"/>
-      <c r="Q34" s="242">
+      <c r="O34" s="250"/>
+      <c r="P34" s="251"/>
+      <c r="Q34" s="231">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="R34" s="243"/>
-      <c r="S34" s="244"/>
-      <c r="T34" s="281">
+      <c r="R34" s="232"/>
+      <c r="S34" s="233"/>
+      <c r="T34" s="268">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U34" s="282"/>
-      <c r="V34" s="282"/>
-      <c r="W34" s="283"/>
-      <c r="X34" s="269">
+      <c r="U34" s="269"/>
+      <c r="V34" s="269"/>
+      <c r="W34" s="270"/>
+      <c r="X34" s="234">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="Y34" s="270"/>
-      <c r="Z34" s="271"/>
+      <c r="Y34" s="235"/>
+      <c r="Z34" s="236"/>
       <c r="AB34" s="1"/>
     </row>
     <row r="35" spans="1:30" ht="21" customHeight="1">
-      <c r="B35" s="260">
+      <c r="B35" s="255">
         <v>800</v>
       </c>
-      <c r="C35" s="261"/>
-      <c r="D35" s="262"/>
-      <c r="E35" s="248">
+      <c r="C35" s="256"/>
+      <c r="D35" s="257"/>
+      <c r="E35" s="249">
         <v>900</v>
       </c>
-      <c r="F35" s="249"/>
-      <c r="G35" s="250"/>
-      <c r="H35" s="248">
+      <c r="F35" s="250"/>
+      <c r="G35" s="251"/>
+      <c r="H35" s="249">
         <v>900</v>
       </c>
-      <c r="I35" s="249"/>
-      <c r="J35" s="250"/>
-      <c r="K35" s="248">
+      <c r="I35" s="250"/>
+      <c r="J35" s="251"/>
+      <c r="K35" s="249">
         <v>900</v>
       </c>
-      <c r="L35" s="249"/>
-      <c r="M35" s="250"/>
-      <c r="N35" s="248">
+      <c r="L35" s="250"/>
+      <c r="M35" s="251"/>
+      <c r="N35" s="249">
         <v>900</v>
       </c>
-      <c r="O35" s="249"/>
-      <c r="P35" s="250"/>
-      <c r="Q35" s="242">
+      <c r="O35" s="250"/>
+      <c r="P35" s="251"/>
+      <c r="Q35" s="231">
         <f>AVERAGE(E35:O35)</f>
         <v>900</v>
       </c>
-      <c r="R35" s="243"/>
-      <c r="S35" s="244"/>
-      <c r="T35" s="281">
-        <f>STDEV(E35:P35)/SQRT(4)</f>
+      <c r="R35" s="232"/>
+      <c r="S35" s="233"/>
+      <c r="T35" s="268">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U35" s="282"/>
-      <c r="V35" s="282"/>
-      <c r="W35" s="283"/>
-      <c r="X35" s="269">
+      <c r="U35" s="269"/>
+      <c r="V35" s="269"/>
+      <c r="W35" s="270"/>
+      <c r="X35" s="234">
         <f>Q35-B35</f>
         <v>100</v>
       </c>
-      <c r="Y35" s="270"/>
-      <c r="Z35" s="271"/>
+      <c r="Y35" s="235"/>
+      <c r="Z35" s="236"/>
       <c r="AB35" s="1"/>
     </row>
     <row r="36" spans="1:30" ht="21" customHeight="1">
-      <c r="B36" s="260">
+      <c r="B36" s="255">
         <v>900</v>
       </c>
-      <c r="C36" s="261"/>
-      <c r="D36" s="262"/>
-      <c r="E36" s="248">
+      <c r="C36" s="256"/>
+      <c r="D36" s="257"/>
+      <c r="E36" s="249">
         <v>900</v>
       </c>
-      <c r="F36" s="249"/>
-      <c r="G36" s="250"/>
-      <c r="H36" s="248">
+      <c r="F36" s="250"/>
+      <c r="G36" s="251"/>
+      <c r="H36" s="249">
         <v>900</v>
       </c>
-      <c r="I36" s="249"/>
-      <c r="J36" s="250"/>
-      <c r="K36" s="248">
+      <c r="I36" s="250"/>
+      <c r="J36" s="251"/>
+      <c r="K36" s="249">
         <v>900</v>
       </c>
-      <c r="L36" s="249"/>
-      <c r="M36" s="250"/>
-      <c r="N36" s="248">
+      <c r="L36" s="250"/>
+      <c r="M36" s="251"/>
+      <c r="N36" s="249">
         <v>900</v>
       </c>
-      <c r="O36" s="249"/>
-      <c r="P36" s="250"/>
-      <c r="Q36" s="242">
+      <c r="O36" s="250"/>
+      <c r="P36" s="251"/>
+      <c r="Q36" s="231">
         <f>AVERAGE(E36:O36)</f>
         <v>900</v>
       </c>
-      <c r="R36" s="243"/>
-      <c r="S36" s="244"/>
-      <c r="T36" s="281">
-        <f>STDEV(E36:P36)/SQRT(4)</f>
+      <c r="R36" s="232"/>
+      <c r="S36" s="233"/>
+      <c r="T36" s="268">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U36" s="282"/>
-      <c r="V36" s="282"/>
-      <c r="W36" s="283"/>
-      <c r="X36" s="269">
+      <c r="U36" s="269"/>
+      <c r="V36" s="269"/>
+      <c r="W36" s="270"/>
+      <c r="X36" s="234">
         <f>Q36-B36</f>
         <v>0</v>
       </c>
-      <c r="Y36" s="270"/>
-      <c r="Z36" s="271"/>
+      <c r="Y36" s="235"/>
+      <c r="Z36" s="236"/>
       <c r="AB36" s="1"/>
     </row>
     <row r="37" spans="1:30" ht="21" customHeight="1">
-      <c r="B37" s="257">
+      <c r="B37" s="295">
         <v>1000</v>
       </c>
-      <c r="C37" s="258"/>
-      <c r="D37" s="259"/>
-      <c r="E37" s="251">
+      <c r="C37" s="296"/>
+      <c r="D37" s="297"/>
+      <c r="E37" s="292">
         <v>1000</v>
       </c>
-      <c r="F37" s="252"/>
-      <c r="G37" s="253"/>
-      <c r="H37" s="251">
+      <c r="F37" s="293"/>
+      <c r="G37" s="294"/>
+      <c r="H37" s="292">
         <v>1000</v>
       </c>
-      <c r="I37" s="252"/>
-      <c r="J37" s="253"/>
-      <c r="K37" s="251">
+      <c r="I37" s="293"/>
+      <c r="J37" s="294"/>
+      <c r="K37" s="292">
         <v>1000</v>
       </c>
-      <c r="L37" s="252"/>
-      <c r="M37" s="253"/>
-      <c r="N37" s="251">
+      <c r="L37" s="293"/>
+      <c r="M37" s="294"/>
+      <c r="N37" s="292">
         <v>1000</v>
       </c>
-      <c r="O37" s="252"/>
-      <c r="P37" s="253"/>
-      <c r="Q37" s="239">
+      <c r="O37" s="293"/>
+      <c r="P37" s="294"/>
+      <c r="Q37" s="304">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="R37" s="240"/>
-      <c r="S37" s="241"/>
-      <c r="T37" s="284">
+      <c r="R37" s="305"/>
+      <c r="S37" s="306"/>
+      <c r="T37" s="268">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U37" s="285"/>
-      <c r="V37" s="285"/>
-      <c r="W37" s="286"/>
-      <c r="X37" s="266">
+      <c r="U37" s="269"/>
+      <c r="V37" s="269"/>
+      <c r="W37" s="270"/>
+      <c r="X37" s="283">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y37" s="267"/>
-      <c r="Z37" s="268"/>
+      <c r="Y37" s="284"/>
+      <c r="Z37" s="285"/>
       <c r="AB37" s="1"/>
     </row>
     <row r="38" spans="1:30" ht="17.100000000000001" customHeight="1">
@@ -6782,12 +6764,12 @@
       <c r="AD38" s="1"/>
     </row>
     <row r="39" spans="1:30" ht="15" customHeight="1">
-      <c r="A39" s="302" t="s">
+      <c r="A39" s="248" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="302"/>
-      <c r="C39" s="302"/>
-      <c r="D39" s="302"/>
+      <c r="B39" s="248"/>
+      <c r="C39" s="248"/>
+      <c r="D39" s="248"/>
       <c r="E39" s="3" t="s">
         <v>82</v>
       </c>
@@ -7061,120 +7043,61 @@
     <row r="188" ht="17.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="205">
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="F5:AA5"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="O9:AA9"/>
-    <mergeCell ref="L7:R7"/>
-    <mergeCell ref="S11:AA11"/>
-    <mergeCell ref="S12:AA12"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="Q6:AA6"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="T15:W16"/>
-    <mergeCell ref="X15:Z16"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q15:S16"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="E15:P15"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="X30:Z30"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="X32:Z32"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="X29:Z29"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="T33:W33"/>
-    <mergeCell ref="T34:W34"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="T30:W30"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="T35:W35"/>
-    <mergeCell ref="X35:Z35"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K24:M24"/>
     <mergeCell ref="E37:G37"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="H17:J17"/>
@@ -7199,73 +7122,132 @@
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="X35:Z35"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E19:G19"/>
     <mergeCell ref="N24:P24"/>
     <mergeCell ref="N26:P26"/>
     <mergeCell ref="N23:P23"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
     <mergeCell ref="N17:P17"/>
     <mergeCell ref="N18:P18"/>
     <mergeCell ref="N19:P19"/>
     <mergeCell ref="N20:P20"/>
     <mergeCell ref="N21:P21"/>
     <mergeCell ref="N22:P22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K24:M24"/>
     <mergeCell ref="N31:P31"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="X29:Z29"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="T34:W34"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="T15:W16"/>
+    <mergeCell ref="X15:Z16"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q15:S16"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="E15:P15"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="F5:AA5"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="O9:AA9"/>
+    <mergeCell ref="L7:R7"/>
+    <mergeCell ref="S11:AA11"/>
+    <mergeCell ref="S12:AA12"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="Q6:AA6"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="X30:Z30"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="X32:Z32"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="X22:Z22"/>
   </mergeCells>
   <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.51181102362204722" bottom="0" header="0.31496062992125984" footer="0"/>
@@ -11385,13 +11367,13 @@
       <c r="Z19" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="AA19" s="318">
+      <c r="AA19" s="307">
         <f>'Data Record'!O2</f>
         <v>42495</v>
       </c>
-      <c r="AB19" s="318"/>
-      <c r="AC19" s="318"/>
-      <c r="AD19" s="318"/>
+      <c r="AB19" s="307"/>
+      <c r="AC19" s="307"/>
+      <c r="AD19" s="307"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
@@ -11650,13 +11632,13 @@
       <c r="Z20" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="AA20" s="318">
+      <c r="AA20" s="307">
         <f>'Data Record'!X2</f>
         <v>42496</v>
       </c>
-      <c r="AB20" s="318"/>
-      <c r="AC20" s="318"/>
-      <c r="AD20" s="318"/>
+      <c r="AB20" s="307"/>
+      <c r="AC20" s="307"/>
+      <c r="AD20" s="307"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
@@ -11915,13 +11897,13 @@
       <c r="Z21" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="AA21" s="323">
+      <c r="AA21" s="312">
         <f>AA20+365</f>
         <v>42861</v>
       </c>
-      <c r="AB21" s="323"/>
-      <c r="AC21" s="323"/>
-      <c r="AD21" s="323"/>
+      <c r="AB21" s="312"/>
+      <c r="AC21" s="312"/>
+      <c r="AD21" s="312"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
@@ -15534,14 +15516,14 @@
       <c r="G35" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="H35" s="322">
+      <c r="H35" s="311">
         <f>AA20+1</f>
         <v>42497</v>
       </c>
-      <c r="I35" s="322"/>
-      <c r="J35" s="322"/>
-      <c r="K35" s="322"/>
-      <c r="L35" s="322"/>
+      <c r="I35" s="311"/>
+      <c r="J35" s="311"/>
+      <c r="K35" s="311"/>
+      <c r="L35" s="311"/>
       <c r="M35" s="177"/>
       <c r="N35" s="173"/>
       <c r="P35" s="173"/>
@@ -16069,17 +16051,17 @@
         <v>3</v>
       </c>
       <c r="R37" s="177"/>
-      <c r="V37" s="320" t="str">
+      <c r="V37" s="309" t="str">
         <f>IF(Q37=1,"( Mr.Sombut Srikampa )",IF(Q37=3,"( Mr. Natthaphol Boonmee )"))</f>
         <v>( Mr. Natthaphol Boonmee )</v>
       </c>
-      <c r="W37" s="320"/>
-      <c r="X37" s="320"/>
-      <c r="Y37" s="320"/>
-      <c r="Z37" s="320"/>
-      <c r="AA37" s="320"/>
-      <c r="AB37" s="320"/>
-      <c r="AC37" s="320"/>
+      <c r="W37" s="309"/>
+      <c r="X37" s="309"/>
+      <c r="Y37" s="309"/>
+      <c r="Z37" s="309"/>
+      <c r="AA37" s="309"/>
+      <c r="AB37" s="309"/>
+      <c r="AC37" s="309"/>
       <c r="AD37" s="4"/>
       <c r="AE37" s="192"/>
       <c r="AF37" s="167"/>
@@ -16327,16 +16309,16 @@
       <c r="P38" s="177"/>
       <c r="Q38" s="177"/>
       <c r="R38" s="177"/>
-      <c r="V38" s="321" t="s">
+      <c r="V38" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="W38" s="321"/>
-      <c r="X38" s="321"/>
-      <c r="Y38" s="321"/>
-      <c r="Z38" s="321"/>
-      <c r="AA38" s="321"/>
-      <c r="AB38" s="321"/>
-      <c r="AC38" s="321"/>
+      <c r="W38" s="310"/>
+      <c r="X38" s="310"/>
+      <c r="Y38" s="310"/>
+      <c r="Z38" s="310"/>
+      <c r="AA38" s="310"/>
+      <c r="AB38" s="310"/>
+      <c r="AC38" s="310"/>
       <c r="AD38" s="201"/>
       <c r="AE38" s="202"/>
       <c r="AF38" s="202"/>
@@ -16824,28 +16806,28 @@
       <c r="IV39" s="4"/>
     </row>
     <row r="40" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A40" s="319"/>
-      <c r="B40" s="319"/>
-      <c r="C40" s="319"/>
-      <c r="D40" s="319"/>
-      <c r="E40" s="319"/>
-      <c r="F40" s="319"/>
-      <c r="G40" s="319"/>
-      <c r="H40" s="319"/>
-      <c r="I40" s="319"/>
-      <c r="J40" s="319"/>
-      <c r="K40" s="319"/>
-      <c r="L40" s="319"/>
-      <c r="M40" s="319"/>
-      <c r="N40" s="319"/>
-      <c r="O40" s="319"/>
-      <c r="P40" s="319"/>
-      <c r="Q40" s="319"/>
-      <c r="R40" s="319"/>
-      <c r="S40" s="319"/>
-      <c r="T40" s="319"/>
-      <c r="U40" s="319"/>
-      <c r="V40" s="319"/>
+      <c r="A40" s="308"/>
+      <c r="B40" s="308"/>
+      <c r="C40" s="308"/>
+      <c r="D40" s="308"/>
+      <c r="E40" s="308"/>
+      <c r="F40" s="308"/>
+      <c r="G40" s="308"/>
+      <c r="H40" s="308"/>
+      <c r="I40" s="308"/>
+      <c r="J40" s="308"/>
+      <c r="K40" s="308"/>
+      <c r="L40" s="308"/>
+      <c r="M40" s="308"/>
+      <c r="N40" s="308"/>
+      <c r="O40" s="308"/>
+      <c r="P40" s="308"/>
+      <c r="Q40" s="308"/>
+      <c r="R40" s="308"/>
+      <c r="S40" s="308"/>
+      <c r="T40" s="308"/>
+      <c r="U40" s="308"/>
+      <c r="V40" s="308"/>
       <c r="W40" s="115"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
@@ -17270,6 +17252,11 @@
     <row r="201" ht="17.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="A3:AD3"/>
     <mergeCell ref="AA19:AD19"/>
     <mergeCell ref="A40:V40"/>
     <mergeCell ref="V37:AC37"/>
@@ -17277,11 +17264,6 @@
     <mergeCell ref="H35:L35"/>
     <mergeCell ref="AA20:AD20"/>
     <mergeCell ref="AA21:AD21"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="A3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.31496062992125984" top="0.98425196850393704" bottom="0.11811023622047245" header="0.31496062992125984" footer="0.19685039370078741"/>
@@ -17320,30 +17302,30 @@
     <row r="1" spans="1:22" ht="21.75" customHeight="1"/>
     <row r="2" spans="1:22" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:22" ht="34.5" customHeight="1">
-      <c r="A3" s="339" t="s">
+      <c r="A3" s="322" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="339"/>
-      <c r="C3" s="339"/>
-      <c r="D3" s="339"/>
-      <c r="E3" s="339"/>
-      <c r="F3" s="339"/>
-      <c r="G3" s="339"/>
-      <c r="H3" s="339"/>
-      <c r="I3" s="339"/>
-      <c r="J3" s="339"/>
-      <c r="K3" s="339"/>
-      <c r="L3" s="339"/>
-      <c r="M3" s="339"/>
-      <c r="N3" s="339"/>
-      <c r="O3" s="339"/>
-      <c r="P3" s="339"/>
-      <c r="Q3" s="339"/>
-      <c r="R3" s="339"/>
-      <c r="S3" s="339"/>
-      <c r="T3" s="339"/>
-      <c r="U3" s="339"/>
-      <c r="V3" s="339"/>
+      <c r="B3" s="322"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="322"/>
+      <c r="H3" s="322"/>
+      <c r="I3" s="322"/>
+      <c r="J3" s="322"/>
+      <c r="K3" s="322"/>
+      <c r="L3" s="322"/>
+      <c r="M3" s="322"/>
+      <c r="N3" s="322"/>
+      <c r="O3" s="322"/>
+      <c r="P3" s="322"/>
+      <c r="Q3" s="322"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="322"/>
+      <c r="T3" s="322"/>
+      <c r="U3" s="322"/>
+      <c r="V3" s="322"/>
     </row>
     <row r="4" spans="1:22" ht="18.75" customHeight="1">
       <c r="A4" s="51"/>
@@ -17393,11 +17375,11 @@
       <c r="O5" s="57"/>
       <c r="P5" s="58"/>
       <c r="Q5" s="58"/>
-      <c r="S5" s="344" t="s">
+      <c r="S5" s="318" t="s">
         <v>101</v>
       </c>
-      <c r="T5" s="344"/>
-      <c r="U5" s="344"/>
+      <c r="T5" s="318"/>
+      <c r="U5" s="318"/>
       <c r="V5" s="4"/>
     </row>
     <row r="6" spans="1:22" ht="18" customHeight="1">
@@ -17452,18 +17434,18 @@
       <c r="D8" s="63"/>
       <c r="E8" s="55"/>
       <c r="F8" s="55"/>
-      <c r="G8" s="324" t="s">
+      <c r="G8" s="327" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="324"/>
-      <c r="I8" s="324"/>
-      <c r="J8" s="324"/>
-      <c r="K8" s="324"/>
-      <c r="L8" s="324"/>
-      <c r="M8" s="324"/>
-      <c r="N8" s="324"/>
-      <c r="O8" s="324"/>
-      <c r="P8" s="324"/>
+      <c r="H8" s="327"/>
+      <c r="I8" s="327"/>
+      <c r="J8" s="327"/>
+      <c r="K8" s="327"/>
+      <c r="L8" s="327"/>
+      <c r="M8" s="327"/>
+      <c r="N8" s="327"/>
+      <c r="O8" s="327"/>
+      <c r="P8" s="327"/>
       <c r="Q8" s="66"/>
       <c r="R8" s="66"/>
       <c r="S8" s="66"/>
@@ -17478,16 +17460,16 @@
       <c r="D9" s="63"/>
       <c r="E9" s="55"/>
       <c r="F9" s="55"/>
-      <c r="G9" s="324"/>
-      <c r="H9" s="324"/>
-      <c r="I9" s="324"/>
-      <c r="J9" s="324"/>
-      <c r="K9" s="324"/>
-      <c r="L9" s="324"/>
-      <c r="M9" s="324"/>
-      <c r="N9" s="324"/>
-      <c r="O9" s="324"/>
-      <c r="P9" s="324"/>
+      <c r="G9" s="327"/>
+      <c r="H9" s="327"/>
+      <c r="I9" s="327"/>
+      <c r="J9" s="327"/>
+      <c r="K9" s="327"/>
+      <c r="L9" s="327"/>
+      <c r="M9" s="327"/>
+      <c r="N9" s="327"/>
+      <c r="O9" s="327"/>
+      <c r="P9" s="327"/>
       <c r="Q9" s="66"/>
       <c r="R9" s="66"/>
       <c r="S9" s="66"/>
@@ -17521,36 +17503,36 @@
     </row>
     <row r="11" spans="1:22" ht="23.1" customHeight="1">
       <c r="A11" s="52"/>
-      <c r="B11" s="325" t="s">
+      <c r="B11" s="319" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="326"/>
-      <c r="D11" s="326"/>
-      <c r="E11" s="326"/>
-      <c r="F11" s="326"/>
-      <c r="G11" s="327"/>
-      <c r="H11" s="325" t="s">
+      <c r="C11" s="320"/>
+      <c r="D11" s="320"/>
+      <c r="E11" s="320"/>
+      <c r="F11" s="320"/>
+      <c r="G11" s="321"/>
+      <c r="H11" s="319" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="326"/>
-      <c r="J11" s="327"/>
-      <c r="K11" s="325" t="s">
+      <c r="I11" s="320"/>
+      <c r="J11" s="321"/>
+      <c r="K11" s="319" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="326"/>
-      <c r="M11" s="327"/>
-      <c r="N11" s="325" t="s">
+      <c r="L11" s="320"/>
+      <c r="M11" s="321"/>
+      <c r="N11" s="319" t="s">
         <v>45</v>
       </c>
-      <c r="O11" s="326"/>
-      <c r="P11" s="326"/>
-      <c r="Q11" s="327"/>
-      <c r="R11" s="326" t="s">
+      <c r="O11" s="320"/>
+      <c r="P11" s="320"/>
+      <c r="Q11" s="321"/>
+      <c r="R11" s="320" t="s">
         <v>46</v>
       </c>
-      <c r="S11" s="326"/>
-      <c r="T11" s="326"/>
-      <c r="U11" s="327"/>
+      <c r="S11" s="320"/>
+      <c r="T11" s="320"/>
+      <c r="U11" s="321"/>
       <c r="V11" s="4"/>
     </row>
     <row r="12" spans="1:22" ht="23.1" customHeight="1">
@@ -18199,16 +18181,16 @@
       <c r="C38" s="77"/>
       <c r="D38" s="77"/>
       <c r="E38" s="77"/>
-      <c r="F38" s="340"/>
-      <c r="G38" s="340"/>
-      <c r="H38" s="340"/>
-      <c r="I38" s="340"/>
+      <c r="F38" s="323"/>
+      <c r="G38" s="323"/>
+      <c r="H38" s="323"/>
+      <c r="I38" s="323"/>
       <c r="J38" s="112"/>
       <c r="K38" s="77"/>
-      <c r="L38" s="341"/>
-      <c r="M38" s="341"/>
-      <c r="N38" s="341"/>
-      <c r="O38" s="341"/>
+      <c r="L38" s="324"/>
+      <c r="M38" s="324"/>
+      <c r="N38" s="324"/>
+      <c r="O38" s="324"/>
       <c r="P38" s="57"/>
       <c r="Q38" s="57"/>
       <c r="R38" s="57"/>
@@ -18257,11 +18239,11 @@
       <c r="M40" s="69"/>
       <c r="N40" s="69"/>
       <c r="O40" s="69"/>
-      <c r="P40" s="342"/>
-      <c r="Q40" s="342"/>
-      <c r="R40" s="342"/>
-      <c r="S40" s="342"/>
-      <c r="T40" s="342"/>
+      <c r="P40" s="325"/>
+      <c r="Q40" s="325"/>
+      <c r="R40" s="325"/>
+      <c r="S40" s="325"/>
+      <c r="T40" s="325"/>
       <c r="U40" s="106"/>
       <c r="V40" s="106"/>
     </row>
@@ -18269,11 +18251,11 @@
       <c r="A41" s="52"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
-      <c r="D41" s="343"/>
-      <c r="E41" s="343"/>
-      <c r="F41" s="343"/>
-      <c r="G41" s="343"/>
-      <c r="H41" s="343"/>
+      <c r="D41" s="326"/>
+      <c r="E41" s="326"/>
+      <c r="F41" s="326"/>
+      <c r="G41" s="326"/>
+      <c r="H41" s="326"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="69"/>
@@ -18290,36 +18272,31 @@
       <c r="V41" s="106"/>
     </row>
     <row r="42" spans="1:22" ht="15">
-      <c r="A42" s="319"/>
-      <c r="B42" s="319"/>
-      <c r="C42" s="319"/>
-      <c r="D42" s="319"/>
-      <c r="E42" s="319"/>
-      <c r="F42" s="319"/>
-      <c r="G42" s="319"/>
-      <c r="H42" s="319"/>
-      <c r="I42" s="319"/>
-      <c r="J42" s="319"/>
-      <c r="K42" s="319"/>
-      <c r="L42" s="319"/>
-      <c r="M42" s="319"/>
-      <c r="N42" s="319"/>
-      <c r="O42" s="319"/>
-      <c r="P42" s="319"/>
-      <c r="Q42" s="319"/>
-      <c r="R42" s="319"/>
-      <c r="S42" s="319"/>
-      <c r="T42" s="319"/>
+      <c r="A42" s="308"/>
+      <c r="B42" s="308"/>
+      <c r="C42" s="308"/>
+      <c r="D42" s="308"/>
+      <c r="E42" s="308"/>
+      <c r="F42" s="308"/>
+      <c r="G42" s="308"/>
+      <c r="H42" s="308"/>
+      <c r="I42" s="308"/>
+      <c r="J42" s="308"/>
+      <c r="K42" s="308"/>
+      <c r="L42" s="308"/>
+      <c r="M42" s="308"/>
+      <c r="N42" s="308"/>
+      <c r="O42" s="308"/>
+      <c r="P42" s="308"/>
+      <c r="Q42" s="308"/>
+      <c r="R42" s="308"/>
+      <c r="S42" s="308"/>
+      <c r="T42" s="308"/>
       <c r="U42" s="115"/>
       <c r="V42" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A42:T42"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
     <mergeCell ref="A3:V3"/>
     <mergeCell ref="F38:I38"/>
     <mergeCell ref="L38:O38"/>
@@ -18333,6 +18310,11 @@
     <mergeCell ref="K12:M12"/>
     <mergeCell ref="N12:Q12"/>
     <mergeCell ref="R12:U12"/>
+    <mergeCell ref="A42:T42"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
   </mergeCells>
   <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.98425196850393704" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.11811023622047245"/>
@@ -18412,30 +18394,30 @@
       <c r="V2" s="116"/>
     </row>
     <row r="3" spans="1:23" ht="34.5" customHeight="1">
-      <c r="A3" s="348" t="s">
+      <c r="A3" s="359" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="348"/>
-      <c r="C3" s="348"/>
-      <c r="D3" s="348"/>
-      <c r="E3" s="348"/>
-      <c r="F3" s="348"/>
-      <c r="G3" s="348"/>
-      <c r="H3" s="348"/>
-      <c r="I3" s="348"/>
-      <c r="J3" s="348"/>
-      <c r="K3" s="348"/>
-      <c r="L3" s="348"/>
-      <c r="M3" s="348"/>
-      <c r="N3" s="348"/>
-      <c r="O3" s="348"/>
-      <c r="P3" s="348"/>
-      <c r="Q3" s="348"/>
-      <c r="R3" s="348"/>
-      <c r="S3" s="348"/>
-      <c r="T3" s="348"/>
-      <c r="U3" s="348"/>
-      <c r="V3" s="348"/>
+      <c r="B3" s="359"/>
+      <c r="C3" s="359"/>
+      <c r="D3" s="359"/>
+      <c r="E3" s="359"/>
+      <c r="F3" s="359"/>
+      <c r="G3" s="359"/>
+      <c r="H3" s="359"/>
+      <c r="I3" s="359"/>
+      <c r="J3" s="359"/>
+      <c r="K3" s="359"/>
+      <c r="L3" s="359"/>
+      <c r="M3" s="359"/>
+      <c r="N3" s="359"/>
+      <c r="O3" s="359"/>
+      <c r="P3" s="359"/>
+      <c r="Q3" s="359"/>
+      <c r="R3" s="359"/>
+      <c r="S3" s="359"/>
+      <c r="T3" s="359"/>
+      <c r="U3" s="359"/>
+      <c r="V3" s="359"/>
     </row>
     <row r="4" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="B4" s="116"/>
@@ -18528,10 +18510,10 @@
       <c r="M7" s="121"/>
       <c r="N7" s="121"/>
       <c r="O7" s="121"/>
-      <c r="P7" s="353" t="s">
+      <c r="P7" s="352" t="s">
         <v>122</v>
       </c>
-      <c r="Q7" s="353"/>
+      <c r="Q7" s="352"/>
       <c r="R7" s="148" t="s">
         <v>19</v>
       </c>
@@ -18545,27 +18527,27 @@
       <c r="B8" s="148"/>
       <c r="C8" s="148"/>
       <c r="D8" s="148"/>
-      <c r="F8" s="360" t="s">
+      <c r="F8" s="340" t="s">
         <v>120</v>
       </c>
-      <c r="G8" s="355"/>
-      <c r="H8" s="356"/>
-      <c r="I8" s="360" t="s">
+      <c r="G8" s="341"/>
+      <c r="H8" s="342"/>
+      <c r="I8" s="340" t="s">
         <v>119</v>
       </c>
-      <c r="J8" s="355"/>
-      <c r="K8" s="356"/>
+      <c r="J8" s="341"/>
+      <c r="K8" s="342"/>
       <c r="L8" s="354" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="355"/>
-      <c r="N8" s="356"/>
-      <c r="O8" s="360" t="s">
+      <c r="M8" s="341"/>
+      <c r="N8" s="342"/>
+      <c r="O8" s="340" t="s">
         <v>121</v>
       </c>
-      <c r="P8" s="361"/>
-      <c r="Q8" s="361"/>
-      <c r="R8" s="362"/>
+      <c r="P8" s="346"/>
+      <c r="Q8" s="346"/>
+      <c r="R8" s="347"/>
       <c r="S8" s="148"/>
       <c r="T8" s="148"/>
       <c r="U8" s="206"/>
@@ -18577,19 +18559,19 @@
       <c r="B9" s="148"/>
       <c r="C9" s="148"/>
       <c r="D9" s="148"/>
-      <c r="F9" s="357"/>
-      <c r="G9" s="358"/>
-      <c r="H9" s="359"/>
-      <c r="I9" s="357"/>
-      <c r="J9" s="358"/>
-      <c r="K9" s="359"/>
-      <c r="L9" s="357"/>
-      <c r="M9" s="358"/>
-      <c r="N9" s="359"/>
-      <c r="O9" s="363"/>
-      <c r="P9" s="364"/>
-      <c r="Q9" s="364"/>
-      <c r="R9" s="365"/>
+      <c r="F9" s="343"/>
+      <c r="G9" s="344"/>
+      <c r="H9" s="345"/>
+      <c r="I9" s="343"/>
+      <c r="J9" s="344"/>
+      <c r="K9" s="345"/>
+      <c r="L9" s="343"/>
+      <c r="M9" s="344"/>
+      <c r="N9" s="345"/>
+      <c r="O9" s="348"/>
+      <c r="P9" s="349"/>
+      <c r="Q9" s="349"/>
+      <c r="R9" s="350"/>
       <c r="S9" s="148"/>
       <c r="T9" s="148"/>
       <c r="U9" s="206"/>
@@ -18600,31 +18582,31 @@
       <c r="A10" s="119"/>
       <c r="B10" s="122"/>
       <c r="C10" s="121"/>
-      <c r="F10" s="346">
+      <c r="F10" s="357">
         <f>'Data Record'!B17</f>
         <v>0</v>
       </c>
-      <c r="G10" s="346"/>
-      <c r="H10" s="346"/>
-      <c r="I10" s="350">
+      <c r="G10" s="357"/>
+      <c r="H10" s="357"/>
+      <c r="I10" s="356">
         <f>'Data Record'!Q17</f>
         <v>0</v>
       </c>
-      <c r="J10" s="350"/>
-      <c r="K10" s="350"/>
-      <c r="L10" s="350">
+      <c r="J10" s="356"/>
+      <c r="K10" s="356"/>
+      <c r="L10" s="356">
         <f>'Data Record'!X17</f>
         <v>0</v>
       </c>
-      <c r="M10" s="350"/>
-      <c r="N10" s="350"/>
-      <c r="O10" s="346">
+      <c r="M10" s="356"/>
+      <c r="N10" s="356"/>
+      <c r="O10" s="357">
         <f>'Uncertainty Budget'!P7</f>
         <v>5.7738144526243085</v>
       </c>
-      <c r="P10" s="346"/>
-      <c r="Q10" s="346"/>
-      <c r="R10" s="346"/>
+      <c r="P10" s="357"/>
+      <c r="Q10" s="357"/>
+      <c r="R10" s="357"/>
       <c r="S10" s="123"/>
       <c r="T10" s="123"/>
       <c r="U10" s="119"/>
@@ -18634,31 +18616,31 @@
       <c r="A11" s="119"/>
       <c r="B11" s="122"/>
       <c r="C11" s="121"/>
-      <c r="F11" s="345">
+      <c r="F11" s="339">
         <f>'Data Record'!B18</f>
         <v>1</v>
       </c>
-      <c r="G11" s="345"/>
-      <c r="H11" s="345"/>
-      <c r="I11" s="349">
+      <c r="G11" s="339"/>
+      <c r="H11" s="339"/>
+      <c r="I11" s="353">
         <f>'Data Record'!Q18</f>
         <v>1</v>
       </c>
-      <c r="J11" s="349"/>
-      <c r="K11" s="349"/>
-      <c r="L11" s="349">
+      <c r="J11" s="353"/>
+      <c r="K11" s="353"/>
+      <c r="L11" s="353">
         <f>'Data Record'!X18</f>
         <v>0</v>
       </c>
-      <c r="M11" s="349"/>
-      <c r="N11" s="349"/>
-      <c r="O11" s="345">
+      <c r="M11" s="353"/>
+      <c r="N11" s="353"/>
+      <c r="O11" s="339">
         <f>'Uncertainty Budget'!P8</f>
         <v>5.7738297226941731</v>
       </c>
-      <c r="P11" s="345"/>
-      <c r="Q11" s="345"/>
-      <c r="R11" s="345"/>
+      <c r="P11" s="339"/>
+      <c r="Q11" s="339"/>
+      <c r="R11" s="339"/>
       <c r="S11" s="123"/>
       <c r="T11" s="123"/>
       <c r="U11" s="119"/>
@@ -18668,31 +18650,31 @@
       <c r="A12" s="119"/>
       <c r="B12" s="122"/>
       <c r="C12" s="121"/>
-      <c r="F12" s="345">
+      <c r="F12" s="339">
         <f>'Data Record'!B19</f>
         <v>1.5</v>
       </c>
-      <c r="G12" s="345"/>
-      <c r="H12" s="345"/>
-      <c r="I12" s="349">
+      <c r="G12" s="339"/>
+      <c r="H12" s="339"/>
+      <c r="I12" s="353">
         <f>'Data Record'!Q19</f>
         <v>1.5</v>
       </c>
-      <c r="J12" s="349"/>
-      <c r="K12" s="349"/>
-      <c r="L12" s="349">
+      <c r="J12" s="353"/>
+      <c r="K12" s="353"/>
+      <c r="L12" s="353">
         <f>'Data Record'!X19</f>
         <v>0</v>
       </c>
-      <c r="M12" s="349"/>
-      <c r="N12" s="349"/>
-      <c r="O12" s="345">
+      <c r="M12" s="353"/>
+      <c r="N12" s="353"/>
+      <c r="O12" s="339">
         <f>'Uncertainty Budget'!P9</f>
         <v>5.7738488102247132</v>
       </c>
-      <c r="P12" s="345"/>
-      <c r="Q12" s="345"/>
-      <c r="R12" s="345"/>
+      <c r="P12" s="339"/>
+      <c r="Q12" s="339"/>
+      <c r="R12" s="339"/>
       <c r="S12" s="123"/>
       <c r="T12" s="123"/>
       <c r="U12" s="119"/>
@@ -18702,31 +18684,31 @@
       <c r="A13" s="119"/>
       <c r="B13" s="122"/>
       <c r="C13" s="121"/>
-      <c r="F13" s="345">
+      <c r="F13" s="339">
         <f>'Data Record'!B20</f>
         <v>2</v>
       </c>
-      <c r="G13" s="345"/>
-      <c r="H13" s="345"/>
-      <c r="I13" s="349">
+      <c r="G13" s="339"/>
+      <c r="H13" s="339"/>
+      <c r="I13" s="353">
         <f>'Data Record'!Q20</f>
         <v>5</v>
       </c>
-      <c r="J13" s="349"/>
-      <c r="K13" s="349"/>
-      <c r="L13" s="349">
+      <c r="J13" s="353"/>
+      <c r="K13" s="353"/>
+      <c r="L13" s="353">
         <f>'Data Record'!X20</f>
         <v>3</v>
       </c>
-      <c r="M13" s="349"/>
-      <c r="N13" s="349"/>
-      <c r="O13" s="345">
+      <c r="M13" s="353"/>
+      <c r="N13" s="353"/>
+      <c r="O13" s="339">
         <f>'Uncertainty Budget'!P10</f>
         <v>5.7738755326614601</v>
       </c>
-      <c r="P13" s="345"/>
-      <c r="Q13" s="345"/>
-      <c r="R13" s="345"/>
+      <c r="P13" s="339"/>
+      <c r="Q13" s="339"/>
+      <c r="R13" s="339"/>
       <c r="S13" s="123"/>
       <c r="T13" s="123"/>
       <c r="U13" s="119"/>
@@ -18736,31 +18718,31 @@
       <c r="A14" s="119"/>
       <c r="B14" s="122"/>
       <c r="C14" s="121"/>
-      <c r="F14" s="345">
+      <c r="F14" s="339">
         <f>'Data Record'!B21</f>
         <v>5</v>
       </c>
-      <c r="G14" s="345"/>
-      <c r="H14" s="345"/>
-      <c r="I14" s="349">
+      <c r="G14" s="339"/>
+      <c r="H14" s="339"/>
+      <c r="I14" s="353">
         <f>'Data Record'!Q21</f>
         <v>10</v>
       </c>
-      <c r="J14" s="349"/>
-      <c r="K14" s="349"/>
-      <c r="L14" s="349">
+      <c r="J14" s="353"/>
+      <c r="K14" s="353"/>
+      <c r="L14" s="353">
         <f>'Data Record'!X21</f>
         <v>5</v>
       </c>
-      <c r="M14" s="349"/>
-      <c r="N14" s="349"/>
-      <c r="O14" s="345">
+      <c r="M14" s="353"/>
+      <c r="N14" s="353"/>
+      <c r="O14" s="339">
         <f>'Uncertainty Budget'!P11</f>
         <v>5.7741961922562579</v>
       </c>
-      <c r="P14" s="345"/>
-      <c r="Q14" s="345"/>
-      <c r="R14" s="345"/>
+      <c r="P14" s="339"/>
+      <c r="Q14" s="339"/>
+      <c r="R14" s="339"/>
       <c r="S14" s="123"/>
       <c r="T14" s="123"/>
       <c r="U14" s="119"/>
@@ -18770,31 +18752,31 @@
       <c r="A15" s="119"/>
       <c r="B15" s="122"/>
       <c r="C15" s="121"/>
-      <c r="F15" s="345">
+      <c r="F15" s="339">
         <f>'Data Record'!B22</f>
         <v>10</v>
       </c>
-      <c r="G15" s="345"/>
-      <c r="H15" s="345"/>
-      <c r="I15" s="349">
+      <c r="G15" s="339"/>
+      <c r="H15" s="339"/>
+      <c r="I15" s="353">
         <f>'Data Record'!Q22</f>
         <v>20</v>
       </c>
-      <c r="J15" s="349"/>
-      <c r="K15" s="349"/>
-      <c r="L15" s="349">
+      <c r="J15" s="353"/>
+      <c r="K15" s="353"/>
+      <c r="L15" s="353">
         <f>'Data Record'!X22</f>
         <v>10</v>
       </c>
-      <c r="M15" s="349"/>
-      <c r="N15" s="349"/>
-      <c r="O15" s="345">
+      <c r="M15" s="353"/>
+      <c r="N15" s="353"/>
+      <c r="O15" s="339">
         <f>'Uncertainty Budget'!P12</f>
         <v>5.7753412597583065</v>
       </c>
-      <c r="P15" s="345"/>
-      <c r="Q15" s="345"/>
-      <c r="R15" s="345"/>
+      <c r="P15" s="339"/>
+      <c r="Q15" s="339"/>
+      <c r="R15" s="339"/>
       <c r="S15" s="123"/>
       <c r="T15" s="123"/>
       <c r="U15" s="119"/>
@@ -18804,31 +18786,31 @@
       <c r="A16" s="119"/>
       <c r="B16" s="122"/>
       <c r="C16" s="121"/>
-      <c r="F16" s="345">
+      <c r="F16" s="339">
         <f>'Data Record'!B23</f>
         <v>20</v>
       </c>
-      <c r="G16" s="345"/>
-      <c r="H16" s="345"/>
-      <c r="I16" s="349">
+      <c r="G16" s="339"/>
+      <c r="H16" s="339"/>
+      <c r="I16" s="353">
         <f>'Data Record'!Q23</f>
         <v>50</v>
       </c>
-      <c r="J16" s="349"/>
-      <c r="K16" s="349"/>
-      <c r="L16" s="349">
+      <c r="J16" s="353"/>
+      <c r="K16" s="353"/>
+      <c r="L16" s="353">
         <f>'Data Record'!X23</f>
         <v>30</v>
       </c>
-      <c r="M16" s="349"/>
-      <c r="N16" s="349"/>
-      <c r="O16" s="345">
+      <c r="M16" s="353"/>
+      <c r="N16" s="353"/>
+      <c r="O16" s="339">
         <f>'Uncertainty Budget'!P13</f>
         <v>5.7800317184827517</v>
       </c>
-      <c r="P16" s="345"/>
-      <c r="Q16" s="345"/>
-      <c r="R16" s="345"/>
+      <c r="P16" s="339"/>
+      <c r="Q16" s="339"/>
+      <c r="R16" s="339"/>
       <c r="S16" s="123"/>
       <c r="T16" s="123"/>
       <c r="U16" s="119"/>
@@ -18838,31 +18820,31 @@
       <c r="A17" s="119"/>
       <c r="B17" s="122"/>
       <c r="C17" s="121"/>
-      <c r="F17" s="345">
+      <c r="F17" s="339">
         <f>'Data Record'!B24</f>
         <v>50</v>
       </c>
-      <c r="G17" s="345"/>
-      <c r="H17" s="345"/>
-      <c r="I17" s="349">
+      <c r="G17" s="339"/>
+      <c r="H17" s="339"/>
+      <c r="I17" s="353">
         <f>'Data Record'!Q24</f>
         <v>100</v>
       </c>
-      <c r="J17" s="349"/>
-      <c r="K17" s="349"/>
-      <c r="L17" s="349">
+      <c r="J17" s="353"/>
+      <c r="K17" s="353"/>
+      <c r="L17" s="353">
         <f>'Data Record'!X24</f>
         <v>50</v>
       </c>
-      <c r="M17" s="349"/>
-      <c r="N17" s="349"/>
-      <c r="O17" s="345">
+      <c r="M17" s="353"/>
+      <c r="N17" s="353"/>
+      <c r="O17" s="339">
         <f>'Uncertainty Budget'!P14</f>
         <v>5.8122514283766726</v>
       </c>
-      <c r="P17" s="345"/>
-      <c r="Q17" s="345"/>
-      <c r="R17" s="345"/>
+      <c r="P17" s="339"/>
+      <c r="Q17" s="339"/>
+      <c r="R17" s="339"/>
       <c r="S17" s="123"/>
       <c r="T17" s="123"/>
       <c r="U17" s="119"/>
@@ -18872,31 +18854,31 @@
       <c r="A18" s="119"/>
       <c r="B18" s="122"/>
       <c r="C18" s="121"/>
-      <c r="F18" s="345">
+      <c r="F18" s="339">
         <f>'Data Record'!B25</f>
         <v>100</v>
       </c>
-      <c r="G18" s="345"/>
-      <c r="H18" s="345"/>
-      <c r="I18" s="349">
+      <c r="G18" s="339"/>
+      <c r="H18" s="339"/>
+      <c r="I18" s="353">
         <f>'Data Record'!Q25</f>
         <v>150</v>
       </c>
-      <c r="J18" s="349"/>
-      <c r="K18" s="349"/>
-      <c r="L18" s="349">
+      <c r="J18" s="353"/>
+      <c r="K18" s="353"/>
+      <c r="L18" s="353">
         <f>'Data Record'!X25</f>
         <v>50</v>
       </c>
-      <c r="M18" s="349"/>
-      <c r="N18" s="349"/>
-      <c r="O18" s="345">
+      <c r="M18" s="353"/>
+      <c r="N18" s="353"/>
+      <c r="O18" s="339">
         <f>'Uncertainty Budget'!P15</f>
         <v>5.9254591945828698</v>
       </c>
-      <c r="P18" s="345"/>
-      <c r="Q18" s="345"/>
-      <c r="R18" s="345"/>
+      <c r="P18" s="339"/>
+      <c r="Q18" s="339"/>
+      <c r="R18" s="339"/>
       <c r="S18" s="123"/>
       <c r="T18" s="123"/>
       <c r="U18" s="119"/>
@@ -18906,31 +18888,31 @@
       <c r="A19" s="119"/>
       <c r="B19" s="122"/>
       <c r="C19" s="121"/>
-      <c r="F19" s="345">
+      <c r="F19" s="339">
         <f>'Data Record'!B26</f>
         <v>150</v>
       </c>
-      <c r="G19" s="345"/>
-      <c r="H19" s="345"/>
-      <c r="I19" s="349">
+      <c r="G19" s="339"/>
+      <c r="H19" s="339"/>
+      <c r="I19" s="353">
         <f>'Data Record'!Q26</f>
         <v>200</v>
       </c>
-      <c r="J19" s="349"/>
-      <c r="K19" s="349"/>
-      <c r="L19" s="349">
+      <c r="J19" s="353"/>
+      <c r="K19" s="353"/>
+      <c r="L19" s="353">
         <f>'Data Record'!X26</f>
         <v>50</v>
       </c>
-      <c r="M19" s="349"/>
-      <c r="N19" s="349"/>
-      <c r="O19" s="345">
+      <c r="M19" s="353"/>
+      <c r="N19" s="353"/>
+      <c r="O19" s="339">
         <f>'Uncertainty Budget'!P16</f>
         <v>6.1254986191601848</v>
       </c>
-      <c r="P19" s="345"/>
-      <c r="Q19" s="345"/>
-      <c r="R19" s="345"/>
+      <c r="P19" s="339"/>
+      <c r="Q19" s="339"/>
+      <c r="R19" s="339"/>
       <c r="S19" s="123"/>
       <c r="T19" s="123"/>
       <c r="U19" s="119"/>
@@ -18940,31 +18922,31 @@
       <c r="A20" s="119"/>
       <c r="B20" s="122"/>
       <c r="C20" s="121"/>
-      <c r="F20" s="345">
+      <c r="F20" s="339">
         <f>'Data Record'!B27</f>
         <v>200</v>
       </c>
-      <c r="G20" s="345"/>
-      <c r="H20" s="345"/>
-      <c r="I20" s="349">
+      <c r="G20" s="339"/>
+      <c r="H20" s="339"/>
+      <c r="I20" s="353">
         <f>'Data Record'!Q27</f>
         <v>250</v>
       </c>
-      <c r="J20" s="349"/>
-      <c r="K20" s="349"/>
-      <c r="L20" s="349">
+      <c r="J20" s="353"/>
+      <c r="K20" s="353"/>
+      <c r="L20" s="353">
         <f>'Data Record'!X27</f>
         <v>50</v>
       </c>
-      <c r="M20" s="349"/>
-      <c r="N20" s="349"/>
-      <c r="O20" s="345">
+      <c r="M20" s="353"/>
+      <c r="N20" s="353"/>
+      <c r="O20" s="339">
         <f>'Uncertainty Budget'!P17</f>
         <v>6.3788060533822994</v>
       </c>
-      <c r="P20" s="345"/>
-      <c r="Q20" s="345"/>
-      <c r="R20" s="345"/>
+      <c r="P20" s="339"/>
+      <c r="Q20" s="339"/>
+      <c r="R20" s="339"/>
       <c r="S20" s="123"/>
       <c r="T20" s="123"/>
       <c r="U20" s="119"/>
@@ -18974,31 +18956,31 @@
       <c r="A21" s="119"/>
       <c r="B21" s="122"/>
       <c r="C21" s="121"/>
-      <c r="F21" s="345">
+      <c r="F21" s="339">
         <f>'Data Record'!B28</f>
         <v>250</v>
       </c>
-      <c r="G21" s="345"/>
-      <c r="H21" s="345"/>
-      <c r="I21" s="349">
+      <c r="G21" s="339"/>
+      <c r="H21" s="339"/>
+      <c r="I21" s="353">
         <f>'Data Record'!Q28</f>
         <v>300</v>
       </c>
-      <c r="J21" s="349"/>
-      <c r="K21" s="349"/>
-      <c r="L21" s="349">
+      <c r="J21" s="353"/>
+      <c r="K21" s="353"/>
+      <c r="L21" s="353">
         <f>'Data Record'!X28</f>
         <v>50</v>
       </c>
-      <c r="M21" s="349"/>
-      <c r="N21" s="349"/>
-      <c r="O21" s="345">
+      <c r="M21" s="353"/>
+      <c r="N21" s="353"/>
+      <c r="O21" s="339">
         <f>'Uncertainty Budget'!P18</f>
         <v>6.6896238060646329</v>
       </c>
-      <c r="P21" s="345"/>
-      <c r="Q21" s="345"/>
-      <c r="R21" s="345"/>
+      <c r="P21" s="339"/>
+      <c r="Q21" s="339"/>
+      <c r="R21" s="339"/>
       <c r="S21" s="123"/>
       <c r="T21" s="123"/>
       <c r="U21" s="119"/>
@@ -19008,31 +18990,31 @@
       <c r="A22" s="119"/>
       <c r="B22" s="122"/>
       <c r="C22" s="121"/>
-      <c r="F22" s="345">
+      <c r="F22" s="339">
         <f>'Data Record'!B29</f>
         <v>300</v>
       </c>
-      <c r="G22" s="345"/>
-      <c r="H22" s="345"/>
-      <c r="I22" s="349">
+      <c r="G22" s="339"/>
+      <c r="H22" s="339"/>
+      <c r="I22" s="353">
         <f>'Data Record'!Q29</f>
         <v>400</v>
       </c>
-      <c r="J22" s="349"/>
-      <c r="K22" s="349"/>
-      <c r="L22" s="349">
+      <c r="J22" s="353"/>
+      <c r="K22" s="353"/>
+      <c r="L22" s="353">
         <f>'Data Record'!X29</f>
         <v>100</v>
       </c>
-      <c r="M22" s="349"/>
-      <c r="N22" s="349"/>
-      <c r="O22" s="345">
+      <c r="M22" s="353"/>
+      <c r="N22" s="353"/>
+      <c r="O22" s="339">
         <f>'Uncertainty Budget'!P19</f>
         <v>7.0503498731150449</v>
       </c>
-      <c r="P22" s="345"/>
-      <c r="Q22" s="345"/>
-      <c r="R22" s="345"/>
+      <c r="P22" s="339"/>
+      <c r="Q22" s="339"/>
+      <c r="R22" s="339"/>
       <c r="S22" s="123"/>
       <c r="T22" s="123"/>
       <c r="U22" s="119"/>
@@ -19042,31 +19024,31 @@
       <c r="A23" s="119"/>
       <c r="B23" s="122"/>
       <c r="C23" s="121"/>
-      <c r="F23" s="345">
+      <c r="F23" s="339">
         <f>'Data Record'!B30</f>
         <v>400</v>
       </c>
-      <c r="G23" s="345"/>
-      <c r="H23" s="345"/>
-      <c r="I23" s="349">
+      <c r="G23" s="339"/>
+      <c r="H23" s="339"/>
+      <c r="I23" s="353">
         <f>'Data Record'!Q30</f>
         <v>500</v>
       </c>
-      <c r="J23" s="349"/>
-      <c r="K23" s="349"/>
-      <c r="L23" s="349">
+      <c r="J23" s="353"/>
+      <c r="K23" s="353"/>
+      <c r="L23" s="353">
         <f>'Data Record'!X30</f>
         <v>100</v>
       </c>
-      <c r="M23" s="349"/>
-      <c r="N23" s="349"/>
-      <c r="O23" s="345">
+      <c r="M23" s="353"/>
+      <c r="N23" s="353"/>
+      <c r="O23" s="339">
         <f>'Uncertainty Budget'!P20</f>
         <v>7.8954902739897452</v>
       </c>
-      <c r="P23" s="345"/>
-      <c r="Q23" s="345"/>
-      <c r="R23" s="345"/>
+      <c r="P23" s="339"/>
+      <c r="Q23" s="339"/>
+      <c r="R23" s="339"/>
       <c r="S23" s="123"/>
       <c r="T23" s="123"/>
       <c r="U23" s="119"/>
@@ -19076,31 +19058,31 @@
       <c r="A24" s="119"/>
       <c r="B24" s="122"/>
       <c r="C24" s="121"/>
-      <c r="F24" s="345">
+      <c r="F24" s="339">
         <f>'Data Record'!B31</f>
         <v>450</v>
       </c>
-      <c r="G24" s="345"/>
-      <c r="H24" s="345"/>
-      <c r="I24" s="349">
+      <c r="G24" s="339"/>
+      <c r="H24" s="339"/>
+      <c r="I24" s="353">
         <f>'Data Record'!Q31</f>
         <v>600</v>
       </c>
-      <c r="J24" s="349"/>
-      <c r="K24" s="349"/>
-      <c r="L24" s="349">
+      <c r="J24" s="353"/>
+      <c r="K24" s="353"/>
+      <c r="L24" s="353">
         <f>'Data Record'!X31</f>
         <v>150</v>
       </c>
-      <c r="M24" s="349"/>
-      <c r="N24" s="349"/>
-      <c r="O24" s="345">
+      <c r="M24" s="353"/>
+      <c r="N24" s="353"/>
+      <c r="O24" s="339">
         <f>'Uncertainty Budget'!P21</f>
         <v>8.3666739707803455</v>
       </c>
-      <c r="P24" s="345"/>
-      <c r="Q24" s="345"/>
-      <c r="R24" s="345"/>
+      <c r="P24" s="339"/>
+      <c r="Q24" s="339"/>
+      <c r="R24" s="339"/>
       <c r="S24" s="123"/>
       <c r="T24" s="123"/>
       <c r="U24" s="119"/>
@@ -19110,31 +19092,31 @@
       <c r="A25" s="119"/>
       <c r="B25" s="122"/>
       <c r="C25" s="121"/>
-      <c r="F25" s="345">
+      <c r="F25" s="339">
         <f>'Data Record'!B32</f>
         <v>500</v>
       </c>
-      <c r="G25" s="345"/>
-      <c r="H25" s="345"/>
-      <c r="I25" s="349">
+      <c r="G25" s="339"/>
+      <c r="H25" s="339"/>
+      <c r="I25" s="353">
         <f>'Data Record'!Q32</f>
         <v>700</v>
       </c>
-      <c r="J25" s="349"/>
-      <c r="K25" s="349"/>
-      <c r="L25" s="349">
+      <c r="J25" s="353"/>
+      <c r="K25" s="353"/>
+      <c r="L25" s="353">
         <f>'Data Record'!X32</f>
         <v>200</v>
       </c>
-      <c r="M25" s="349"/>
-      <c r="N25" s="349"/>
-      <c r="O25" s="345">
+      <c r="M25" s="353"/>
+      <c r="N25" s="353"/>
+      <c r="O25" s="339">
         <f>'Uncertainty Budget'!P22</f>
         <v>8.8671679056318009</v>
       </c>
-      <c r="P25" s="345"/>
-      <c r="Q25" s="345"/>
-      <c r="R25" s="345"/>
+      <c r="P25" s="339"/>
+      <c r="Q25" s="339"/>
+      <c r="R25" s="339"/>
       <c r="S25" s="123"/>
       <c r="T25" s="123"/>
       <c r="U25" s="119"/>
@@ -19144,31 +19126,31 @@
       <c r="A26" s="119"/>
       <c r="B26" s="122"/>
       <c r="C26" s="121"/>
-      <c r="F26" s="345">
+      <c r="F26" s="339">
         <f>'Data Record'!B33</f>
         <v>600</v>
       </c>
-      <c r="G26" s="345"/>
-      <c r="H26" s="345"/>
-      <c r="I26" s="349">
+      <c r="G26" s="339"/>
+      <c r="H26" s="339"/>
+      <c r="I26" s="353">
         <f>'Data Record'!Q33</f>
         <v>800</v>
       </c>
-      <c r="J26" s="349"/>
-      <c r="K26" s="349"/>
-      <c r="L26" s="349">
+      <c r="J26" s="353"/>
+      <c r="K26" s="353"/>
+      <c r="L26" s="353">
         <f>'Data Record'!X33</f>
         <v>200</v>
       </c>
-      <c r="M26" s="349"/>
-      <c r="N26" s="349"/>
-      <c r="O26" s="345">
+      <c r="M26" s="353"/>
+      <c r="N26" s="353"/>
+      <c r="O26" s="339">
         <f>'Uncertainty Budget'!P23</f>
         <v>9.9147230588319175</v>
       </c>
-      <c r="P26" s="345"/>
-      <c r="Q26" s="345"/>
-      <c r="R26" s="345"/>
+      <c r="P26" s="339"/>
+      <c r="Q26" s="339"/>
+      <c r="R26" s="339"/>
       <c r="S26" s="123"/>
       <c r="T26" s="123"/>
       <c r="U26" s="119"/>
@@ -19178,31 +19160,31 @@
       <c r="A27" s="119"/>
       <c r="B27" s="122"/>
       <c r="C27" s="121"/>
-      <c r="F27" s="345">
+      <c r="F27" s="339">
         <f>'Data Record'!B34</f>
         <v>700</v>
       </c>
-      <c r="G27" s="345"/>
-      <c r="H27" s="345"/>
-      <c r="I27" s="349">
+      <c r="G27" s="339"/>
+      <c r="H27" s="339"/>
+      <c r="I27" s="353">
         <f>'Data Record'!Q34</f>
         <v>900</v>
       </c>
-      <c r="J27" s="349"/>
-      <c r="K27" s="349"/>
-      <c r="L27" s="349">
+      <c r="J27" s="353"/>
+      <c r="K27" s="353"/>
+      <c r="L27" s="353">
         <f>'Data Record'!X34</f>
         <v>200</v>
       </c>
-      <c r="M27" s="349"/>
-      <c r="N27" s="349"/>
-      <c r="O27" s="345">
+      <c r="M27" s="353"/>
+      <c r="N27" s="353"/>
+      <c r="O27" s="339">
         <f>'Uncertainty Budget'!P24</f>
         <v>11.066126994873439</v>
       </c>
-      <c r="P27" s="345"/>
-      <c r="Q27" s="345"/>
-      <c r="R27" s="345"/>
+      <c r="P27" s="339"/>
+      <c r="Q27" s="339"/>
+      <c r="R27" s="339"/>
       <c r="S27" s="123"/>
       <c r="T27" s="123"/>
       <c r="U27" s="119"/>
@@ -19212,31 +19194,31 @@
       <c r="A28" s="119"/>
       <c r="B28" s="122"/>
       <c r="C28" s="121"/>
-      <c r="F28" s="345">
+      <c r="F28" s="339">
         <f>'Data Record'!B35</f>
         <v>800</v>
       </c>
-      <c r="G28" s="345"/>
-      <c r="H28" s="345"/>
-      <c r="I28" s="349">
+      <c r="G28" s="339"/>
+      <c r="H28" s="339"/>
+      <c r="I28" s="353">
         <f>'Data Record'!Q35</f>
         <v>900</v>
       </c>
-      <c r="J28" s="349"/>
-      <c r="K28" s="349"/>
-      <c r="L28" s="349">
+      <c r="J28" s="353"/>
+      <c r="K28" s="353"/>
+      <c r="L28" s="353">
         <f>'Data Record'!X35</f>
         <v>100</v>
       </c>
-      <c r="M28" s="349"/>
-      <c r="N28" s="349"/>
-      <c r="O28" s="345">
+      <c r="M28" s="353"/>
+      <c r="N28" s="353"/>
+      <c r="O28" s="339">
         <f>'Uncertainty Budget'!P25</f>
         <v>12.225496581598094</v>
       </c>
-      <c r="P28" s="345"/>
-      <c r="Q28" s="345"/>
-      <c r="R28" s="345"/>
+      <c r="P28" s="339"/>
+      <c r="Q28" s="339"/>
+      <c r="R28" s="339"/>
       <c r="S28" s="123"/>
       <c r="T28" s="123"/>
       <c r="U28" s="119"/>
@@ -19246,31 +19228,31 @@
       <c r="A29" s="119"/>
       <c r="B29" s="122"/>
       <c r="C29" s="121"/>
-      <c r="F29" s="345">
+      <c r="F29" s="339">
         <f>'Data Record'!B36</f>
         <v>900</v>
       </c>
-      <c r="G29" s="345"/>
-      <c r="H29" s="345"/>
-      <c r="I29" s="349">
+      <c r="G29" s="339"/>
+      <c r="H29" s="339"/>
+      <c r="I29" s="353">
         <f>'Data Record'!Q36</f>
         <v>900</v>
       </c>
-      <c r="J29" s="349"/>
-      <c r="K29" s="349"/>
-      <c r="L29" s="349">
+      <c r="J29" s="353"/>
+      <c r="K29" s="353"/>
+      <c r="L29" s="353">
         <f>'Data Record'!X36</f>
         <v>0</v>
       </c>
-      <c r="M29" s="349"/>
-      <c r="N29" s="349"/>
-      <c r="O29" s="345">
+      <c r="M29" s="353"/>
+      <c r="N29" s="353"/>
+      <c r="O29" s="339">
         <f>'Uncertainty Budget'!P26</f>
         <v>13.421007165385664</v>
       </c>
-      <c r="P29" s="345"/>
-      <c r="Q29" s="345"/>
-      <c r="R29" s="345"/>
+      <c r="P29" s="339"/>
+      <c r="Q29" s="339"/>
+      <c r="R29" s="339"/>
       <c r="S29" s="123"/>
       <c r="T29" s="123"/>
       <c r="U29" s="119"/>
@@ -19286,18 +19268,18 @@
       </c>
       <c r="G30" s="351"/>
       <c r="H30" s="351"/>
-      <c r="I30" s="352">
+      <c r="I30" s="355">
         <f>'Data Record'!Q37</f>
         <v>1000</v>
       </c>
-      <c r="J30" s="352"/>
-      <c r="K30" s="352"/>
-      <c r="L30" s="352">
+      <c r="J30" s="355"/>
+      <c r="K30" s="355"/>
+      <c r="L30" s="355">
         <f>'Data Record'!X37</f>
         <v>0</v>
       </c>
-      <c r="M30" s="352"/>
-      <c r="N30" s="352"/>
+      <c r="M30" s="355"/>
+      <c r="N30" s="355"/>
       <c r="O30" s="351">
         <f>'Uncertainty Budget'!P27</f>
         <v>14.632797636360133</v>
@@ -19409,30 +19391,30 @@
       <c r="W34" s="171"/>
     </row>
     <row r="35" spans="1:23" ht="21" customHeight="1">
-      <c r="A35" s="347" t="s">
+      <c r="A35" s="358" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="347"/>
-      <c r="C35" s="347"/>
-      <c r="D35" s="347"/>
-      <c r="E35" s="347"/>
-      <c r="F35" s="347"/>
-      <c r="G35" s="347"/>
-      <c r="H35" s="347"/>
-      <c r="I35" s="347"/>
-      <c r="J35" s="347"/>
-      <c r="K35" s="347"/>
-      <c r="L35" s="347"/>
-      <c r="M35" s="347"/>
-      <c r="N35" s="347"/>
-      <c r="O35" s="347"/>
-      <c r="P35" s="347"/>
-      <c r="Q35" s="347"/>
-      <c r="R35" s="347"/>
-      <c r="S35" s="347"/>
-      <c r="T35" s="347"/>
-      <c r="U35" s="347"/>
-      <c r="V35" s="347"/>
+      <c r="B35" s="358"/>
+      <c r="C35" s="358"/>
+      <c r="D35" s="358"/>
+      <c r="E35" s="358"/>
+      <c r="F35" s="358"/>
+      <c r="G35" s="358"/>
+      <c r="H35" s="358"/>
+      <c r="I35" s="358"/>
+      <c r="J35" s="358"/>
+      <c r="K35" s="358"/>
+      <c r="L35" s="358"/>
+      <c r="M35" s="358"/>
+      <c r="N35" s="358"/>
+      <c r="O35" s="358"/>
+      <c r="P35" s="358"/>
+      <c r="Q35" s="358"/>
+      <c r="R35" s="358"/>
+      <c r="S35" s="358"/>
+      <c r="T35" s="358"/>
+      <c r="U35" s="358"/>
+      <c r="V35" s="358"/>
       <c r="W35" s="171"/>
     </row>
     <row r="36" spans="1:23" ht="17.100000000000001" customHeight="1">
@@ -20924,38 +20906,49 @@
     <row r="247" ht="17.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="F8:H9"/>
-    <mergeCell ref="O8:R9"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="L8:N9"/>
-    <mergeCell ref="I8:K9"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="A35:V35"/>
+    <mergeCell ref="A3:V3"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="I30:K30"/>
     <mergeCell ref="L10:N10"/>
     <mergeCell ref="L11:N11"/>
@@ -20972,49 +20965,38 @@
     <mergeCell ref="L29:N29"/>
     <mergeCell ref="L30:N30"/>
     <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="A35:V35"/>
-    <mergeCell ref="A3:V3"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="L8:N9"/>
+    <mergeCell ref="I8:K9"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="F8:H9"/>
+    <mergeCell ref="O8:R9"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="O25:R25"/>
   </mergeCells>
   <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.98425196850393704" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.11811023622047245"/>
@@ -21037,8 +21019,8 @@
   </sheetPr>
   <dimension ref="A1:IV129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7:O27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15"/>
@@ -21059,29 +21041,29 @@
       <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:256" ht="23.25">
-      <c r="B2" s="366" t="s">
+      <c r="B2" s="364" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="366"/>
-      <c r="D2" s="366"/>
-      <c r="E2" s="366"/>
-      <c r="F2" s="366"/>
-      <c r="G2" s="366"/>
-      <c r="H2" s="366"/>
-      <c r="I2" s="366"/>
-      <c r="J2" s="366"/>
-      <c r="K2" s="366"/>
-      <c r="L2" s="366"/>
-      <c r="M2" s="366"/>
-      <c r="N2" s="366"/>
-      <c r="O2" s="366"/>
-      <c r="P2" s="366"/>
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="364"/>
+      <c r="H2" s="364"/>
+      <c r="I2" s="364"/>
+      <c r="J2" s="364"/>
+      <c r="K2" s="364"/>
+      <c r="L2" s="364"/>
+      <c r="M2" s="364"/>
+      <c r="N2" s="364"/>
+      <c r="O2" s="364"/>
+      <c r="P2" s="364"/>
     </row>
     <row r="3" spans="1:256">
-      <c r="B3" s="367"/>
-      <c r="C3" s="367"/>
-      <c r="D3" s="367"/>
-      <c r="E3" s="367"/>
+      <c r="B3" s="365"/>
+      <c r="C3" s="365"/>
+      <c r="D3" s="365"/>
+      <c r="E3" s="365"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -21089,36 +21071,36 @@
       <c r="P3" s="19"/>
     </row>
     <row r="4" spans="1:256">
-      <c r="B4" s="368" t="s">
+      <c r="B4" s="366" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="369"/>
-      <c r="D4" s="368" t="s">
+      <c r="C4" s="367"/>
+      <c r="D4" s="366" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="369"/>
-      <c r="F4" s="368" t="s">
+      <c r="E4" s="367"/>
+      <c r="F4" s="366" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="369"/>
-      <c r="H4" s="370" t="s">
+      <c r="G4" s="367"/>
+      <c r="H4" s="368" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="371"/>
-      <c r="J4" s="368" t="s">
+      <c r="I4" s="369"/>
+      <c r="J4" s="366" t="s">
         <v>109</v>
       </c>
-      <c r="K4" s="369"/>
-      <c r="L4" s="372" t="s">
+      <c r="K4" s="367"/>
+      <c r="L4" s="370" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="372" t="s">
+      <c r="M4" s="370" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="372" t="s">
+      <c r="N4" s="370" t="s">
         <v>110</v>
       </c>
-      <c r="O4" s="372" t="s">
+      <c r="O4" s="370" t="s">
         <v>111</v>
       </c>
       <c r="P4" s="213" t="s">
@@ -21129,30 +21111,30 @@
       <c r="Z4" s="20"/>
     </row>
     <row r="5" spans="1:256">
-      <c r="B5" s="374" t="s">
+      <c r="B5" s="372" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="375"/>
-      <c r="D5" s="374" t="s">
+      <c r="C5" s="373"/>
+      <c r="D5" s="372" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="375"/>
-      <c r="F5" s="374" t="s">
+      <c r="E5" s="373"/>
+      <c r="F5" s="372" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="375"/>
-      <c r="H5" s="376" t="s">
+      <c r="G5" s="373"/>
+      <c r="H5" s="374" t="s">
         <v>113</v>
       </c>
-      <c r="I5" s="377"/>
-      <c r="J5" s="374" t="s">
+      <c r="I5" s="375"/>
+      <c r="J5" s="372" t="s">
         <v>113</v>
       </c>
-      <c r="K5" s="375"/>
-      <c r="L5" s="373"/>
-      <c r="M5" s="373"/>
-      <c r="N5" s="373"/>
-      <c r="O5" s="373"/>
+      <c r="K5" s="373"/>
+      <c r="L5" s="371"/>
+      <c r="M5" s="371"/>
+      <c r="N5" s="371"/>
+      <c r="O5" s="371"/>
       <c r="P5" s="214" t="s">
         <v>114</v>
       </c>
@@ -21161,10 +21143,10 @@
       <c r="Z5" s="20"/>
     </row>
     <row r="6" spans="1:256" ht="18.75">
-      <c r="B6" s="378" t="s">
+      <c r="B6" s="362" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="379"/>
+      <c r="C6" s="363"/>
       <c r="D6" s="21" t="s">
         <v>4</v>
       </c>
@@ -21211,11 +21193,11 @@
     </row>
     <row r="7" spans="1:256" ht="18.75">
       <c r="A7" s="20"/>
-      <c r="B7" s="380">
+      <c r="B7" s="360">
         <f>'Data Record'!B17</f>
         <v>0</v>
       </c>
-      <c r="C7" s="381"/>
+      <c r="C7" s="361"/>
       <c r="D7" s="27">
         <f>'Data Record'!T17</f>
         <v>0</v>
@@ -21275,11 +21257,11 @@
     </row>
     <row r="8" spans="1:256" ht="18.75">
       <c r="A8" s="20"/>
-      <c r="B8" s="380">
+      <c r="B8" s="360">
         <f>'Data Record'!B18</f>
         <v>1</v>
       </c>
-      <c r="C8" s="381"/>
+      <c r="C8" s="361"/>
       <c r="D8" s="27">
         <f>'Data Record'!T18</f>
         <v>0</v>
@@ -21339,11 +21321,11 @@
     </row>
     <row r="9" spans="1:256" ht="18.75">
       <c r="A9" s="20"/>
-      <c r="B9" s="380">
+      <c r="B9" s="360">
         <f>'Data Record'!B19</f>
         <v>1.5</v>
       </c>
-      <c r="C9" s="381"/>
+      <c r="C9" s="361"/>
       <c r="D9" s="27">
         <f>'Data Record'!T19</f>
         <v>0</v>
@@ -21639,11 +21621,11 @@
     </row>
     <row r="10" spans="1:256" ht="18.75">
       <c r="A10" s="20"/>
-      <c r="B10" s="380">
+      <c r="B10" s="360">
         <f>'Data Record'!B20</f>
         <v>2</v>
       </c>
-      <c r="C10" s="381"/>
+      <c r="C10" s="361"/>
       <c r="D10" s="27">
         <f>'Data Record'!T20</f>
         <v>0</v>
@@ -21939,11 +21921,11 @@
     </row>
     <row r="11" spans="1:256" ht="18.75">
       <c r="A11" s="20"/>
-      <c r="B11" s="380">
+      <c r="B11" s="360">
         <f>'Data Record'!B21</f>
         <v>5</v>
       </c>
-      <c r="C11" s="381"/>
+      <c r="C11" s="361"/>
       <c r="D11" s="27">
         <f>'Data Record'!T21</f>
         <v>0</v>
@@ -22239,11 +22221,11 @@
     </row>
     <row r="12" spans="1:256" ht="18.75">
       <c r="A12" s="20"/>
-      <c r="B12" s="380">
+      <c r="B12" s="360">
         <f>'Data Record'!B22</f>
         <v>10</v>
       </c>
-      <c r="C12" s="381"/>
+      <c r="C12" s="361"/>
       <c r="D12" s="27">
         <f>'Data Record'!T22</f>
         <v>0</v>
@@ -22536,11 +22518,11 @@
     </row>
     <row r="13" spans="1:256" ht="18.75">
       <c r="A13" s="20"/>
-      <c r="B13" s="380">
+      <c r="B13" s="360">
         <f>'Data Record'!B23</f>
         <v>20</v>
       </c>
-      <c r="C13" s="381"/>
+      <c r="C13" s="361"/>
       <c r="D13" s="27">
         <f>'Data Record'!T23</f>
         <v>0</v>
@@ -22833,11 +22815,11 @@
     </row>
     <row r="14" spans="1:256" ht="18.75">
       <c r="A14" s="20"/>
-      <c r="B14" s="380">
+      <c r="B14" s="360">
         <f>'Data Record'!B24</f>
         <v>50</v>
       </c>
-      <c r="C14" s="381"/>
+      <c r="C14" s="361"/>
       <c r="D14" s="27">
         <f>'Data Record'!T24</f>
         <v>0</v>
@@ -23130,11 +23112,11 @@
     </row>
     <row r="15" spans="1:256" ht="18.75">
       <c r="A15" s="20"/>
-      <c r="B15" s="380">
+      <c r="B15" s="360">
         <f>'Data Record'!B25</f>
         <v>100</v>
       </c>
-      <c r="C15" s="381"/>
+      <c r="C15" s="361"/>
       <c r="D15" s="27">
         <f>'Data Record'!T25</f>
         <v>0</v>
@@ -23427,11 +23409,11 @@
     </row>
     <row r="16" spans="1:256" ht="18.75">
       <c r="A16" s="20"/>
-      <c r="B16" s="380">
+      <c r="B16" s="360">
         <f>'Data Record'!B26</f>
         <v>150</v>
       </c>
-      <c r="C16" s="381"/>
+      <c r="C16" s="361"/>
       <c r="D16" s="27">
         <f>'Data Record'!T26</f>
         <v>0</v>
@@ -23724,11 +23706,11 @@
     </row>
     <row r="17" spans="1:256" ht="18.75">
       <c r="A17" s="20"/>
-      <c r="B17" s="380">
+      <c r="B17" s="360">
         <f>'Data Record'!B27</f>
         <v>200</v>
       </c>
-      <c r="C17" s="381"/>
+      <c r="C17" s="361"/>
       <c r="D17" s="27">
         <f>'Data Record'!T27</f>
         <v>0</v>
@@ -24021,11 +24003,11 @@
     </row>
     <row r="18" spans="1:256" ht="18.75">
       <c r="A18" s="20"/>
-      <c r="B18" s="380">
+      <c r="B18" s="360">
         <f>'Data Record'!B28</f>
         <v>250</v>
       </c>
-      <c r="C18" s="381"/>
+      <c r="C18" s="361"/>
       <c r="D18" s="27">
         <f>'Data Record'!T28</f>
         <v>0</v>
@@ -24318,11 +24300,11 @@
     </row>
     <row r="19" spans="1:256" ht="18.75">
       <c r="A19" s="20"/>
-      <c r="B19" s="380">
+      <c r="B19" s="360">
         <f>'Data Record'!B29</f>
         <v>300</v>
       </c>
-      <c r="C19" s="381"/>
+      <c r="C19" s="361"/>
       <c r="D19" s="27">
         <f>'Data Record'!T29</f>
         <v>0</v>
@@ -24615,11 +24597,11 @@
     </row>
     <row r="20" spans="1:256" ht="18.75">
       <c r="A20" s="20"/>
-      <c r="B20" s="380">
+      <c r="B20" s="360">
         <f>'Data Record'!B30</f>
         <v>400</v>
       </c>
-      <c r="C20" s="381"/>
+      <c r="C20" s="361"/>
       <c r="D20" s="27">
         <f>'Data Record'!T30</f>
         <v>0</v>
@@ -24912,11 +24894,11 @@
     </row>
     <row r="21" spans="1:256" ht="18.75">
       <c r="A21" s="20"/>
-      <c r="B21" s="380">
+      <c r="B21" s="360">
         <f>'Data Record'!B31</f>
         <v>450</v>
       </c>
-      <c r="C21" s="381"/>
+      <c r="C21" s="361"/>
       <c r="D21" s="27">
         <f>'Data Record'!T31</f>
         <v>0</v>
@@ -25209,11 +25191,11 @@
     </row>
     <row r="22" spans="1:256" ht="18.75">
       <c r="A22" s="20"/>
-      <c r="B22" s="380">
+      <c r="B22" s="360">
         <f>'Data Record'!B32</f>
         <v>500</v>
       </c>
-      <c r="C22" s="381"/>
+      <c r="C22" s="361"/>
       <c r="D22" s="27">
         <f>'Data Record'!T32</f>
         <v>0</v>
@@ -25506,11 +25488,11 @@
     </row>
     <row r="23" spans="1:256" ht="18.75">
       <c r="A23" s="20"/>
-      <c r="B23" s="380">
+      <c r="B23" s="360">
         <f>'Data Record'!B33</f>
         <v>600</v>
       </c>
-      <c r="C23" s="381"/>
+      <c r="C23" s="361"/>
       <c r="D23" s="27">
         <f>'Data Record'!T33</f>
         <v>0</v>
@@ -25802,11 +25784,11 @@
       <c r="IV23" s="20"/>
     </row>
     <row r="24" spans="1:256" ht="18.75">
-      <c r="B24" s="380">
+      <c r="B24" s="360">
         <f>'Data Record'!B34</f>
         <v>700</v>
       </c>
-      <c r="C24" s="381"/>
+      <c r="C24" s="361"/>
       <c r="D24" s="27">
         <f>'Data Record'!T34</f>
         <v>0</v>
@@ -26098,11 +26080,11 @@
       <c r="IV24" s="20"/>
     </row>
     <row r="25" spans="1:256" ht="18.75">
-      <c r="B25" s="380">
+      <c r="B25" s="360">
         <f>'Data Record'!B35</f>
         <v>800</v>
       </c>
-      <c r="C25" s="381"/>
+      <c r="C25" s="361"/>
       <c r="D25" s="27">
         <f>'Data Record'!T35</f>
         <v>0</v>
@@ -26394,11 +26376,11 @@
       <c r="IV25" s="20"/>
     </row>
     <row r="26" spans="1:256" ht="18.75">
-      <c r="B26" s="380">
+      <c r="B26" s="360">
         <f>'Data Record'!B36</f>
         <v>900</v>
       </c>
-      <c r="C26" s="381"/>
+      <c r="C26" s="361"/>
       <c r="D26" s="27">
         <f>'Data Record'!T36</f>
         <v>0</v>
@@ -26690,11 +26672,11 @@
       <c r="IV26" s="20"/>
     </row>
     <row r="27" spans="1:256" ht="18.75">
-      <c r="B27" s="380">
+      <c r="B27" s="360">
         <f>'Data Record'!B37</f>
         <v>1000</v>
       </c>
-      <c r="C27" s="381"/>
+      <c r="C27" s="361"/>
       <c r="D27" s="27">
         <f>'Data Record'!T37</f>
         <v>0</v>
@@ -53303,28 +53285,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:C4"/>
@@ -53341,6 +53301,28 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -53405,64 +53387,64 @@
       <c r="X2" s="8"/>
     </row>
     <row r="3" spans="2:24">
-      <c r="B3" s="387" t="s">
+      <c r="B3" s="376" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="388"/>
-      <c r="D3" s="388"/>
-      <c r="E3" s="388"/>
-      <c r="F3" s="389"/>
-      <c r="H3" s="387" t="s">
+      <c r="C3" s="377"/>
+      <c r="D3" s="377"/>
+      <c r="E3" s="377"/>
+      <c r="F3" s="378"/>
+      <c r="H3" s="376" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="388"/>
-      <c r="J3" s="388"/>
-      <c r="K3" s="388"/>
-      <c r="L3" s="389"/>
-      <c r="N3" s="387" t="s">
+      <c r="I3" s="377"/>
+      <c r="J3" s="377"/>
+      <c r="K3" s="377"/>
+      <c r="L3" s="378"/>
+      <c r="N3" s="376" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="388"/>
-      <c r="P3" s="388"/>
-      <c r="Q3" s="388"/>
-      <c r="R3" s="389"/>
-      <c r="T3" s="387" t="s">
+      <c r="O3" s="377"/>
+      <c r="P3" s="377"/>
+      <c r="Q3" s="377"/>
+      <c r="R3" s="378"/>
+      <c r="T3" s="376" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="388"/>
-      <c r="V3" s="388"/>
-      <c r="W3" s="388"/>
-      <c r="X3" s="389"/>
+      <c r="U3" s="377"/>
+      <c r="V3" s="377"/>
+      <c r="W3" s="377"/>
+      <c r="X3" s="378"/>
     </row>
     <row r="4" spans="2:24" ht="26.25">
-      <c r="B4" s="390" t="s">
+      <c r="B4" s="379" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="391"/>
-      <c r="D4" s="391"/>
-      <c r="E4" s="391"/>
-      <c r="F4" s="392"/>
-      <c r="H4" s="390" t="s">
+      <c r="C4" s="380"/>
+      <c r="D4" s="380"/>
+      <c r="E4" s="380"/>
+      <c r="F4" s="381"/>
+      <c r="H4" s="379" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="391"/>
-      <c r="J4" s="391"/>
-      <c r="K4" s="391"/>
-      <c r="L4" s="392"/>
-      <c r="N4" s="390" t="s">
+      <c r="I4" s="380"/>
+      <c r="J4" s="380"/>
+      <c r="K4" s="380"/>
+      <c r="L4" s="381"/>
+      <c r="N4" s="379" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="391"/>
-      <c r="P4" s="391"/>
-      <c r="Q4" s="391"/>
-      <c r="R4" s="392"/>
-      <c r="T4" s="390" t="s">
+      <c r="O4" s="380"/>
+      <c r="P4" s="380"/>
+      <c r="Q4" s="380"/>
+      <c r="R4" s="381"/>
+      <c r="T4" s="379" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="391"/>
-      <c r="V4" s="391"/>
-      <c r="W4" s="391"/>
-      <c r="X4" s="392"/>
+      <c r="U4" s="380"/>
+      <c r="V4" s="380"/>
+      <c r="W4" s="380"/>
+      <c r="X4" s="381"/>
     </row>
     <row r="5" spans="2:24" ht="26.25">
       <c r="B5" s="382" t="s">
@@ -55198,6 +55180,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="J5:L5"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="N3:R3"/>
@@ -55206,14 +55196,6 @@
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="N4:R4"/>
     <mergeCell ref="T4:X4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
